--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-24.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1325"/>
+  <dimension ref="A1:H1305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33389,10 +33389,8 @@
       <c r="E1025" t="inlineStr"/>
       <c r="F1025" t="inlineStr"/>
       <c r="G1025" t="inlineStr"/>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1026">
@@ -33419,10 +33417,8 @@
       </c>
       <c r="F1026" t="inlineStr"/>
       <c r="G1026" t="inlineStr"/>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1027">
@@ -33445,10 +33441,8 @@
       <c r="E1027" t="inlineStr"/>
       <c r="F1027" t="inlineStr"/>
       <c r="G1027" t="inlineStr"/>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1028">
@@ -33475,10 +33469,8 @@
       </c>
       <c r="F1028" t="inlineStr"/>
       <c r="G1028" t="inlineStr"/>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1029">
@@ -33513,10 +33505,8 @@
           <t>€7.8B</t>
         </is>
       </c>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1030">
@@ -33543,10 +33533,8 @@
       </c>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1031">
@@ -33581,10 +33569,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1032">
@@ -33607,10 +33593,8 @@
       <c r="E1032" t="inlineStr"/>
       <c r="F1032" t="inlineStr"/>
       <c r="G1032" t="inlineStr"/>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1033">
@@ -33641,10 +33625,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1034">
@@ -33679,10 +33661,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1035">
@@ -33717,10 +33697,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1036">
@@ -33755,10 +33733,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -33793,10 +33769,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1038">
@@ -33831,10 +33805,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1039">
@@ -33869,10 +33841,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -33907,10 +33877,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1041">
@@ -33945,10 +33913,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1042">
@@ -33979,10 +33945,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1043">
@@ -34013,10 +33977,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34047,10 +34009,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34077,10 +34037,8 @@
       </c>
       <c r="F1045" t="inlineStr"/>
       <c r="G1045" t="inlineStr"/>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1046">
@@ -34107,10 +34065,8 @@
       </c>
       <c r="F1046" t="inlineStr"/>
       <c r="G1046" t="inlineStr"/>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34137,10 +34093,8 @@
       </c>
       <c r="F1047" t="inlineStr"/>
       <c r="G1047" t="inlineStr"/>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34167,10 +34121,8 @@
       </c>
       <c r="F1048" t="inlineStr"/>
       <c r="G1048" t="inlineStr"/>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34197,10 +34149,8 @@
       </c>
       <c r="F1049" t="inlineStr"/>
       <c r="G1049" t="inlineStr"/>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34231,10 +34181,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34265,10 +34213,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -34303,10 +34249,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1053">
@@ -34341,10 +34285,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1053" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1053" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1054">
@@ -34379,10 +34321,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -34409,10 +34349,8 @@
       </c>
       <c r="F1055" t="inlineStr"/>
       <c r="G1055" t="inlineStr"/>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1056">
@@ -34439,10 +34377,8 @@
       </c>
       <c r="F1056" t="inlineStr"/>
       <c r="G1056" t="inlineStr"/>
-      <c r="H1056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1056" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1057">
@@ -34469,10 +34405,8 @@
       </c>
       <c r="F1057" t="inlineStr"/>
       <c r="G1057" t="inlineStr"/>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -34499,10 +34433,8 @@
       </c>
       <c r="F1058" t="inlineStr"/>
       <c r="G1058" t="inlineStr"/>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -34529,10 +34461,8 @@
       </c>
       <c r="F1059" t="inlineStr"/>
       <c r="G1059" t="inlineStr"/>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1060">
@@ -34555,10 +34485,8 @@
       <c r="E1060" t="inlineStr"/>
       <c r="F1060" t="inlineStr"/>
       <c r="G1060" t="inlineStr"/>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1061">
@@ -34585,10 +34513,8 @@
       </c>
       <c r="F1061" t="inlineStr"/>
       <c r="G1061" t="inlineStr"/>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1062">
@@ -34615,10 +34541,8 @@
       </c>
       <c r="F1062" t="inlineStr"/>
       <c r="G1062" t="inlineStr"/>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1063">
@@ -34645,10 +34569,8 @@
       </c>
       <c r="F1063" t="inlineStr"/>
       <c r="G1063" t="inlineStr"/>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1064">
@@ -34679,10 +34601,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1065">
@@ -34717,10 +34637,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1066">
@@ -34747,10 +34665,8 @@
       </c>
       <c r="F1066" t="inlineStr"/>
       <c r="G1066" t="inlineStr"/>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1067">
@@ -34781,10 +34697,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1068">
@@ -34815,10 +34729,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1069">
@@ -34853,10 +34765,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1070">
@@ -34891,10 +34801,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1071">
@@ -34929,10 +34837,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1072">
@@ -34967,10 +34873,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1073">
@@ -35005,10 +34909,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1074">
@@ -35039,10 +34941,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -35077,10 +34977,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -35107,96 +35005,98 @@
       </c>
       <c r="F1076" t="inlineStr"/>
       <c r="G1076" t="inlineStr"/>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1077" t="inlineStr"/>
-      <c r="C1077" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1077" t="inlineStr"/>
-      <c r="E1077" t="inlineStr"/>
+      <c r="E1077" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1077" t="inlineStr"/>
-      <c r="G1077" t="inlineStr"/>
-      <c r="H1077" t="inlineStr"/>
+      <c r="G1077" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1077" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1078" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1078" t="inlineStr"/>
       <c r="E1078" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1078" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1078" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IF</t>
         </is>
       </c>
       <c r="C1079" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>IMF/World Economic Outlook</t>
         </is>
       </c>
       <c r="D1079" t="inlineStr"/>
-      <c r="E1079" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1079" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G1079" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="E1079" t="inlineStr"/>
+      <c r="F1079" t="inlineStr"/>
+      <c r="G1079" t="inlineStr"/>
       <c r="H1079" t="inlineStr">
         <is>
           <t>2</t>
@@ -35206,71 +35106,71 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1080" t="inlineStr"/>
       <c r="E1080" t="inlineStr">
         <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F1080" t="inlineStr">
+        <is>
           <t>0.3%</t>
         </is>
       </c>
-      <c r="F1080" t="inlineStr">
+      <c r="G1080" t="inlineStr">
         <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1080" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
       <c r="H1080" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1081" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1081" t="inlineStr"/>
       <c r="E1081" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="F1081" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="G1081" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1081" t="inlineStr">
@@ -35282,29 +35182,29 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1082" t="inlineStr"/>
       <c r="E1082" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1082" t="inlineStr"/>
       <c r="G1082" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1082" t="inlineStr">
@@ -35316,31 +35216,35 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1083" t="inlineStr"/>
       <c r="E1083" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1083" t="inlineStr">
         <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1083" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1083" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1083" t="inlineStr">
         <is>
           <t>3</t>
@@ -35350,107 +35254,91 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1084" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1084" t="inlineStr"/>
       <c r="E1084" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F1084" t="inlineStr"/>
       <c r="G1084" t="inlineStr">
         <is>
-          <t>€-4.2B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1084" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1085" t="inlineStr"/>
       <c r="E1085" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1085" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1085" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="F1085" t="inlineStr"/>
+      <c r="G1085" t="inlineStr"/>
       <c r="H1085" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1086" t="inlineStr"/>
       <c r="E1086" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1086" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G1086" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1086" t="inlineStr"/>
+      <c r="G1086" t="inlineStr"/>
       <c r="H1086" t="inlineStr">
         <is>
           <t>3</t>
@@ -35460,73 +35348,57 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1087" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1087" t="inlineStr"/>
       <c r="E1087" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1087" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1087" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1087" t="inlineStr"/>
+      <c r="G1087" t="inlineStr"/>
       <c r="H1087" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1088" t="inlineStr"/>
       <c r="E1088" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1088" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1088" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1088" t="inlineStr"/>
+      <c r="G1088" t="inlineStr"/>
       <c r="H1088" t="inlineStr">
         <is>
           <t>3</t>
@@ -35536,21 +35408,25 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1089" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1089" t="inlineStr"/>
-      <c r="E1089" t="inlineStr"/>
+      <c r="E1089" t="inlineStr">
+        <is>
+          <t>$203.6B</t>
+        </is>
+      </c>
       <c r="F1089" t="inlineStr"/>
       <c r="G1089" t="inlineStr"/>
       <c r="H1089" t="inlineStr">
@@ -35560,33 +35436,25 @@
       </c>
     </row>
     <row r="1090">
-      <c r="A1090" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1090" t="inlineStr"/>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1090" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1090" t="inlineStr"/>
       <c r="E1090" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F1090" t="inlineStr"/>
-      <c r="G1090" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G1090" t="inlineStr"/>
       <c r="H1090" t="inlineStr">
         <is>
           <t>3</t>
@@ -35596,169 +35464,165 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1091" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1091" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr"/>
+      <c r="C1091" t="inlineStr"/>
       <c r="D1091" t="inlineStr"/>
       <c r="E1091" t="inlineStr"/>
       <c r="F1091" t="inlineStr"/>
       <c r="G1091" t="inlineStr"/>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1091" t="inlineStr"/>
     </row>
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1092" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1092" t="inlineStr"/>
       <c r="E1092" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F1092" t="inlineStr"/>
-      <c r="G1092" t="inlineStr"/>
+      <c r="G1092" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1093" t="inlineStr"/>
       <c r="E1093" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1093" t="inlineStr"/>
-      <c r="G1093" t="inlineStr"/>
+      <c r="G1093" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1094" t="inlineStr"/>
       <c r="E1094" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1094" t="inlineStr"/>
       <c r="G1094" t="inlineStr"/>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1095" t="inlineStr"/>
       <c r="E1095" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1095" t="inlineStr"/>
       <c r="G1095" t="inlineStr"/>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1096" t="inlineStr"/>
       <c r="E1096" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1096" t="inlineStr"/>
@@ -35772,203 +35636,167 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1097" t="inlineStr"/>
       <c r="E1097" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1097" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G1097" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H1097" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1098" t="inlineStr"/>
       <c r="E1098" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1098" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1098" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1099" t="inlineStr"/>
       <c r="E1099" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1099" t="inlineStr"/>
-      <c r="G1099" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1099" t="inlineStr"/>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1100">
-      <c r="A1100" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1100" t="inlineStr"/>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1100" t="inlineStr"/>
-      <c r="E1100" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1100" t="inlineStr"/>
       <c r="F1100" t="inlineStr"/>
-      <c r="G1100" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="G1100" t="inlineStr"/>
       <c r="H1100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1101" t="inlineStr">
-        <is>
-          <t>IF</t>
-        </is>
-      </c>
-      <c r="C1101" t="inlineStr">
-        <is>
-          <t>IMF/World Economic Outlook</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr"/>
+      <c r="C1101" t="inlineStr"/>
       <c r="D1101" t="inlineStr"/>
       <c r="E1101" t="inlineStr"/>
       <c r="F1101" t="inlineStr"/>
       <c r="G1101" t="inlineStr"/>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H1101" t="inlineStr"/>
     </row>
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1102" t="inlineStr"/>
       <c r="E1102" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1102" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1102" t="inlineStr"/>
       <c r="G1102" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1102" t="inlineStr">
@@ -35980,33 +35808,29 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1103" t="inlineStr"/>
       <c r="E1103" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1103" t="inlineStr">
-        <is>
-          <t>77%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1103" t="inlineStr"/>
       <c r="G1103" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1103" t="inlineStr">
@@ -36018,29 +35842,29 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1104" t="inlineStr"/>
       <c r="E1104" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1104" t="inlineStr"/>
       <c r="G1104" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1104" t="inlineStr">
@@ -36052,17 +35876,17 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1105" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1105" t="inlineStr"/>
@@ -36071,16 +35895,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="F1105" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1105" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="F1105" t="inlineStr"/>
+      <c r="G1105" t="inlineStr"/>
       <c r="H1105" t="inlineStr">
         <is>
           <t>3</t>
@@ -36090,31 +35906,23 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1106" t="inlineStr"/>
-      <c r="E1106" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1106" t="inlineStr"/>
       <c r="F1106" t="inlineStr"/>
-      <c r="G1106" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1106" t="inlineStr"/>
       <c r="H1106" t="inlineStr">
         <is>
           <t>3</t>
@@ -36124,25 +35932,21 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1107" t="inlineStr"/>
-      <c r="E1107" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1107" t="inlineStr"/>
       <c r="F1107" t="inlineStr"/>
       <c r="G1107" t="inlineStr"/>
       <c r="H1107" t="inlineStr">
@@ -36154,23 +35958,23 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1108" t="inlineStr"/>
       <c r="E1108" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1108" t="inlineStr"/>
@@ -36184,53 +35988,57 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1109" t="inlineStr"/>
       <c r="E1109" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1109" t="inlineStr"/>
-      <c r="G1109" t="inlineStr"/>
+      <c r="G1109" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1110" t="inlineStr"/>
       <c r="E1110" t="inlineStr">
         <is>
-          <t>$92.1B</t>
+          <t>2.489%</t>
         </is>
       </c>
       <c r="F1110" t="inlineStr"/>
@@ -36244,23 +36052,23 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1111" t="inlineStr"/>
       <c r="E1111" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>2.691%</t>
         </is>
       </c>
       <c r="F1111" t="inlineStr"/>
@@ -36272,21 +36080,25 @@
       </c>
     </row>
     <row r="1112">
-      <c r="A1112" t="inlineStr"/>
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1112" t="inlineStr"/>
       <c r="E1112" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>2.593%</t>
         </is>
       </c>
       <c r="F1112" t="inlineStr"/>
@@ -36300,169 +36112,189 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1113" t="inlineStr"/>
-      <c r="C1113" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1113" t="inlineStr"/>
       <c r="E1113" t="inlineStr"/>
       <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr"/>
+      <c r="H1113" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1114" t="inlineStr"/>
       <c r="E1114" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1115" t="inlineStr"/>
       <c r="E1115" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1115" t="inlineStr"/>
       <c r="G1115" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1116" t="inlineStr"/>
       <c r="E1116" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1116" t="inlineStr"/>
-      <c r="G1116" t="inlineStr"/>
+      <c r="G1116" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1117" t="inlineStr"/>
-      <c r="E1117" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1117" t="inlineStr"/>
       <c r="F1117" t="inlineStr"/>
-      <c r="G1117" t="inlineStr"/>
+      <c r="G1117" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1118" t="inlineStr"/>
       <c r="E1118" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1118" t="inlineStr"/>
-      <c r="G1118" t="inlineStr"/>
+      <c r="G1118" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1118" t="inlineStr">
         <is>
           <t>3</t>
@@ -36472,7 +36304,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr">
@@ -36482,25 +36314,17 @@
       </c>
       <c r="C1119" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1119" t="inlineStr"/>
       <c r="E1119" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1119" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1119" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1119" t="inlineStr"/>
+      <c r="G1119" t="inlineStr"/>
       <c r="H1119" t="inlineStr">
         <is>
           <t>3</t>
@@ -36508,33 +36332,25 @@
       </c>
     </row>
     <row r="1120">
-      <c r="A1120" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1120" t="inlineStr"/>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1120" t="inlineStr"/>
       <c r="E1120" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1120" t="inlineStr"/>
-      <c r="G1120" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1120" t="inlineStr"/>
       <c r="H1120" t="inlineStr">
         <is>
           <t>3</t>
@@ -36542,25 +36358,21 @@
       </c>
     </row>
     <row r="1121">
-      <c r="A1121" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1121" t="inlineStr"/>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1121" t="inlineStr"/>
       <c r="E1121" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1121" t="inlineStr"/>
@@ -36575,18 +36387,26 @@
       <c r="A1122" t="inlineStr"/>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1122" t="inlineStr"/>
-      <c r="E1122" t="inlineStr"/>
+      <c r="E1122" t="inlineStr">
+        <is>
+          <t>80.6</t>
+        </is>
+      </c>
       <c r="F1122" t="inlineStr"/>
-      <c r="G1122" t="inlineStr"/>
+      <c r="G1122" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="H1122" t="inlineStr">
         <is>
           <t>3</t>
@@ -36594,79 +36414,79 @@
       </c>
     </row>
     <row r="1123">
-      <c r="A1123" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1123" t="inlineStr"/>
-      <c r="C1123" t="inlineStr"/>
+      <c r="A1123" t="inlineStr"/>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>BCB Focus Market Readout</t>
+        </is>
+      </c>
       <c r="D1123" t="inlineStr"/>
       <c r="E1123" t="inlineStr"/>
       <c r="F1123" t="inlineStr"/>
       <c r="G1123" t="inlineStr"/>
-      <c r="H1123" t="inlineStr"/>
+      <c r="H1123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1124">
-      <c r="A1124" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1124" t="inlineStr"/>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D1124" t="inlineStr"/>
       <c r="E1124" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F1124" t="inlineStr"/>
       <c r="G1124" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1124" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1125">
-      <c r="A1125" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1125" t="inlineStr"/>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1125" t="inlineStr"/>
       <c r="E1125" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1125" t="inlineStr"/>
       <c r="G1125" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1125" t="inlineStr">
@@ -36676,33 +36496,21 @@
       </c>
     </row>
     <row r="1126">
-      <c r="A1126" t="inlineStr">
-        <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
+      <c r="A1126" t="inlineStr"/>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1126" t="inlineStr"/>
-      <c r="E1126" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1126" t="inlineStr"/>
       <c r="F1126" t="inlineStr"/>
-      <c r="G1126" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G1126" t="inlineStr"/>
       <c r="H1126" t="inlineStr">
         <is>
           <t>3</t>
@@ -36712,51 +36520,39 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1127" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1127" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr"/>
+      <c r="C1127" t="inlineStr"/>
       <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1127" t="inlineStr"/>
       <c r="F1127" t="inlineStr"/>
       <c r="G1127" t="inlineStr"/>
-      <c r="H1127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1127" t="inlineStr"/>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr"/>
-      <c r="E1128" t="inlineStr"/>
+      <c r="E1128" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
+      </c>
       <c r="F1128" t="inlineStr"/>
       <c r="G1128" t="inlineStr"/>
       <c r="H1128" t="inlineStr">
@@ -36768,21 +36564,25 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr"/>
-      <c r="E1129" t="inlineStr"/>
+      <c r="E1129" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="F1129" t="inlineStr"/>
       <c r="G1129" t="inlineStr"/>
       <c r="H1129" t="inlineStr">
@@ -36794,151 +36594,159 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="F1130" t="inlineStr"/>
       <c r="G1130" t="inlineStr"/>
       <c r="H1130" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>2.489%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr"/>
-      <c r="G1132" t="inlineStr"/>
+      <c r="G1132" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>2.691%</t>
+          <t>173K</t>
         </is>
       </c>
       <c r="F1133" t="inlineStr"/>
       <c r="G1133" t="inlineStr"/>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>2.593%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr"/>
-      <c r="G1134" t="inlineStr"/>
+      <c r="G1134" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1134" t="inlineStr">
         <is>
           <t>3</t>
@@ -36948,55 +36756,63 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
-      <c r="E1135" t="inlineStr"/>
+      <c r="E1135" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1135" t="inlineStr"/>
-      <c r="G1135" t="inlineStr"/>
+      <c r="G1135" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-35K</t>
         </is>
       </c>
       <c r="F1136" t="inlineStr"/>
       <c r="G1136" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>20K</t>
         </is>
       </c>
       <c r="H1136" t="inlineStr">
@@ -37008,31 +36824,27 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
         <is>
           <t>3</t>
@@ -37042,31 +36854,27 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
           <t>3</t>
@@ -37076,27 +36884,27 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
-      <c r="E1139" t="inlineStr"/>
+      <c r="E1139" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F1139" t="inlineStr"/>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1139" t="inlineStr"/>
       <c r="H1139" t="inlineStr">
         <is>
           <t>3</t>
@@ -37106,83 +36914,83 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1140" t="inlineStr"/>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1141" t="inlineStr"/>
       <c r="G1141" t="inlineStr"/>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1142">
-      <c r="A1142" t="inlineStr"/>
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>05:00 AM</t>
+        </is>
+      </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1142" t="inlineStr"/>
@@ -37194,23 +37002,23 @@
       </c>
     </row>
     <row r="1143">
-      <c r="A1143" t="inlineStr"/>
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
-      <c r="E1143" t="inlineStr">
-        <is>
-          <t>-27.9%</t>
-        </is>
-      </c>
+      <c r="E1143" t="inlineStr"/>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
       <c r="H1143" t="inlineStr">
@@ -37220,29 +37028,29 @@
       </c>
     </row>
     <row r="1144">
-      <c r="A1144" t="inlineStr"/>
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
+      <c r="G1144" t="inlineStr"/>
       <c r="H1144" t="inlineStr">
         <is>
           <t>3</t>
@@ -37250,19 +37058,27 @@
       </c>
     </row>
     <row r="1145">
-      <c r="A1145" t="inlineStr"/>
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>BCB Focus Market Readout</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
-      <c r="E1145" t="inlineStr"/>
+      <c r="E1145" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1145" t="inlineStr"/>
       <c r="G1145" t="inlineStr"/>
       <c r="H1145" t="inlineStr">
@@ -37272,125 +37088,165 @@
       </c>
     </row>
     <row r="1146">
-      <c r="A1146" t="inlineStr"/>
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1146" t="inlineStr"/>
       <c r="G1146" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1147">
-      <c r="A1147" t="inlineStr"/>
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1147" t="inlineStr"/>
       <c r="G1147" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1148">
-      <c r="A1148" t="inlineStr"/>
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
-      <c r="E1148" t="inlineStr"/>
+      <c r="E1148" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr"/>
-      <c r="C1149" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate MoMDEC</t>
+        </is>
+      </c>
       <c r="D1149" t="inlineStr"/>
       <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr"/>
+      <c r="G1149" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1149" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>3.18%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr"/>
+      <c r="G1150" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1150" t="inlineStr">
         <is>
           <t>3</t>
@@ -37400,27 +37256,31 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F1151" t="inlineStr"/>
-      <c r="G1151" t="inlineStr"/>
+      <c r="G1151" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1151" t="inlineStr">
         <is>
           <t>3</t>
@@ -37430,198 +37290,166 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>-1.9%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr"/>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1153" t="inlineStr"/>
       <c r="H1153" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1154" t="inlineStr"/>
       <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>173K</t>
+          <t>4.180%</t>
         </is>
       </c>
       <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr"/>
       <c r="H1155" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1157" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1157" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr"/>
+      <c r="C1157" t="inlineStr"/>
       <c r="D1157" t="inlineStr"/>
-      <c r="E1157" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1157" t="inlineStr"/>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H1157" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1157" t="inlineStr"/>
+      <c r="H1157" t="inlineStr"/>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
@@ -37636,19 +37464,19 @@
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
       <c r="G1158" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>£ -11.3B</t>
         </is>
       </c>
       <c r="H1158" t="inlineStr">
@@ -37660,7 +37488,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
@@ -37670,27 +37498,31 @@
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
       <c r="E1159" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1159" t="inlineStr"/>
-      <c r="G1159" t="inlineStr"/>
+      <c r="G1159" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
@@ -37700,27 +37532,31 @@
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr"/>
+      <c r="G1160" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1160" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
@@ -37730,17 +37566,21 @@
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1161" t="inlineStr">
         <is>
           <t>3</t>
@@ -37750,37 +37590,41 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr"/>
+      <c r="G1162" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
@@ -37790,47 +37634,47 @@
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
-      <c r="E1163" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
+      <c r="E1163" t="inlineStr"/>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr"/>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr"/>
+      <c r="G1164" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1164" t="inlineStr">
         <is>
           <t>3</t>
@@ -37840,21 +37684,25 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
-      <c r="E1165" t="inlineStr"/>
+      <c r="E1165" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
       <c r="F1165" t="inlineStr"/>
       <c r="G1165" t="inlineStr"/>
       <c r="H1165" t="inlineStr">
@@ -37866,25 +37714,21 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1166" t="inlineStr"/>
       <c r="F1166" t="inlineStr"/>
       <c r="G1166" t="inlineStr"/>
       <c r="H1166" t="inlineStr">
@@ -37896,25 +37740,21 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
-      <c r="E1167" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1167" t="inlineStr"/>
       <c r="F1167" t="inlineStr"/>
       <c r="G1167" t="inlineStr"/>
       <c r="H1167" t="inlineStr">
@@ -37926,65 +37766,53 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1168" t="inlineStr"/>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1169" t="inlineStr"/>
       <c r="H1169" t="inlineStr">
         <is>
           <t>2</t>
@@ -37994,61 +37822,49 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
-      <c r="E1170" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1170" t="inlineStr"/>
       <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1170" t="inlineStr"/>
       <c r="H1170" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr"/>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1171" t="inlineStr"/>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -38058,31 +37874,23 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
-      <c r="E1172" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1172" t="inlineStr"/>
       <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1172" t="inlineStr"/>
       <c r="H1172" t="inlineStr">
         <is>
           <t>3</t>
@@ -38092,31 +37900,23 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
-      <c r="E1173" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1173" t="inlineStr"/>
       <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1173" t="inlineStr"/>
       <c r="H1173" t="inlineStr">
         <is>
           <t>3</t>
@@ -38126,27 +37926,31 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
       <c r="E1174" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1174" t="inlineStr">
         <is>
           <t>3</t>
@@ -38156,27 +37960,31 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1175" t="inlineStr"/>
       <c r="E1175" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1175" t="inlineStr">
         <is>
           <t>3</t>
@@ -38186,23 +37994,31 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr"/>
+      <c r="E1176" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr"/>
+      <c r="G1176" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1176" t="inlineStr">
         <is>
           <t>3</t>
@@ -38212,7 +38028,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
@@ -38222,13 +38038,13 @@
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
       <c r="E1177" t="inlineStr">
         <is>
-          <t>4.180%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1177" t="inlineStr"/>
@@ -38242,77 +38058,81 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
+      <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr"/>
-      <c r="C1179" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
       <c r="G1179" t="inlineStr"/>
-      <c r="H1179" t="inlineStr"/>
+      <c r="H1179" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1180" t="inlineStr"/>
       <c r="G1180" t="inlineStr">
         <is>
-          <t>£ -11.3B</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H1180" t="inlineStr">
@@ -38324,29 +38144,25 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1181" t="inlineStr"/>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H1181" t="inlineStr">
@@ -38358,31 +38174,23 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="E1182" t="inlineStr"/>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G1182" t="inlineStr"/>
       <c r="H1182" t="inlineStr">
         <is>
           <t>2</t>
@@ -38392,63 +38200,63 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
       <c r="E1183" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1183" t="inlineStr"/>
       <c r="G1183" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
       <c r="E1184" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1184" t="inlineStr"/>
       <c r="G1184" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1184" t="inlineStr">
@@ -38460,85 +38268,85 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
+      <c r="E1185" t="inlineStr">
+        <is>
+          <t>¥-117.6B</t>
+        </is>
+      </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
+      <c r="G1185" t="inlineStr">
+        <is>
+          <t>¥ 100B</t>
+        </is>
+      </c>
       <c r="H1185" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1186" t="inlineStr"/>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
+      <c r="E1187" t="inlineStr"/>
       <c r="F1187" t="inlineStr"/>
       <c r="G1187" t="inlineStr"/>
       <c r="H1187" t="inlineStr">
@@ -38550,21 +38358,25 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
+      <c r="E1188" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
       <c r="F1188" t="inlineStr"/>
       <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
@@ -38576,17 +38388,17 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
@@ -38602,73 +38414,81 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr"/>
+      <c r="G1190" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1190" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F1191" t="inlineStr"/>
       <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
@@ -38684,47 +38504,39 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1193" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1193" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr"/>
+      <c r="C1193" t="inlineStr"/>
       <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="inlineStr"/>
       <c r="F1193" t="inlineStr"/>
       <c r="G1193" t="inlineStr"/>
-      <c r="H1193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1193" t="inlineStr"/>
     </row>
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr"/>
+      <c r="E1194" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr"/>
       <c r="H1194" t="inlineStr">
@@ -38736,23 +38548,31 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr"/>
+      <c r="E1195" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr"/>
+      <c r="G1195" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="H1195" t="inlineStr">
         <is>
           <t>3</t>
@@ -38762,23 +38582,23 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
       <c r="E1196" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F1196" t="inlineStr"/>
@@ -38796,29 +38616,29 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
       <c r="E1197" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1197" t="inlineStr"/>
       <c r="G1197" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1197" t="inlineStr">
@@ -38830,31 +38650,27 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
       <c r="E1198" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>SAR20.8B</t>
         </is>
       </c>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1198" t="inlineStr"/>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -38864,23 +38680,23 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
       <c r="E1199" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>SAR92.8B</t>
         </is>
       </c>
       <c r="F1199" t="inlineStr"/>
@@ -38894,21 +38710,25 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
+      <c r="E1200" t="inlineStr">
+        <is>
+          <t>SAR72B</t>
+        </is>
+      </c>
       <c r="F1200" t="inlineStr"/>
       <c r="G1200" t="inlineStr"/>
       <c r="H1200" t="inlineStr">
@@ -38920,21 +38740,25 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="F1201" t="inlineStr"/>
       <c r="G1201" t="inlineStr"/>
       <c r="H1201" t="inlineStr">
@@ -38946,46 +38770,42 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
       <c r="E1202" t="inlineStr">
         <is>
-          <t>127.1%</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
+      <c r="G1202" t="inlineStr"/>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
@@ -38994,13 +38814,13 @@
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr"/>
+      <c r="E1203" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
       <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="G1203" t="inlineStr"/>
       <c r="H1203" t="inlineStr">
         <is>
           <t>2</t>
@@ -39010,91 +38830,83 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr"/>
+      <c r="E1204" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="F1204" t="inlineStr"/>
       <c r="G1204" t="inlineStr"/>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr"/>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>4.499%</t>
         </is>
       </c>
       <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G1206" t="inlineStr"/>
       <c r="H1206" t="inlineStr">
         <is>
           <t>3</t>
@@ -39104,85 +38916,77 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
-      <c r="E1207" t="inlineStr">
-        <is>
-          <t>¥-117.6B</t>
-        </is>
-      </c>
+      <c r="E1207" t="inlineStr"/>
       <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
+      <c r="G1207" t="inlineStr"/>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>OATi Auction</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1208" t="inlineStr"/>
       <c r="F1208" t="inlineStr"/>
       <c r="G1208" t="inlineStr"/>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr"/>
+      <c r="E1209" t="inlineStr">
+        <is>
+          <t>21.6%</t>
+        </is>
+      </c>
       <c r="F1209" t="inlineStr"/>
       <c r="G1209" t="inlineStr"/>
       <c r="H1209" t="inlineStr">
@@ -39194,115 +38998,111 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>-3.8%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="F1210" t="inlineStr"/>
       <c r="G1210" t="inlineStr"/>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr"/>
+      <c r="E1211" t="inlineStr">
+        <is>
+          <t>47.5%</t>
+        </is>
+      </c>
       <c r="F1211" t="inlineStr"/>
       <c r="G1211" t="inlineStr"/>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
       <c r="E1212" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr">
+      <c r="G1212" t="inlineStr"/>
+      <c r="H1212" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1212" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
+      <c r="E1213" t="inlineStr"/>
       <c r="F1213" t="inlineStr"/>
       <c r="G1213" t="inlineStr"/>
       <c r="H1213" t="inlineStr">
@@ -39314,21 +39114,25 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr"/>
+      <c r="E1214" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1214" t="inlineStr"/>
       <c r="G1214" t="inlineStr"/>
       <c r="H1214" t="inlineStr">
@@ -39340,37 +39144,53 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr"/>
-      <c r="C1215" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
+        </is>
+      </c>
       <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr"/>
+      <c r="E1215" t="inlineStr">
+        <is>
+          <t>3.62%</t>
+        </is>
+      </c>
       <c r="F1215" t="inlineStr"/>
       <c r="G1215" t="inlineStr"/>
-      <c r="H1215" t="inlineStr"/>
+      <c r="H1215" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>1-Year T-Bill Auction</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
       <c r="E1216" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1216" t="inlineStr"/>
@@ -39384,31 +39204,27 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G1217" t="inlineStr"/>
       <c r="H1217" t="inlineStr">
         <is>
           <t>3</t>
@@ -39418,125 +39234,117 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Sales Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1218" t="inlineStr"/>
       <c r="H1218" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr"/>
       <c r="E1219" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1219" t="inlineStr"/>
       <c r="G1219" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H1219" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr">
-        <is>
-          <t>SAR20.8B</t>
-        </is>
-      </c>
+      <c r="E1220" t="inlineStr"/>
       <c r="F1220" t="inlineStr"/>
       <c r="G1220" t="inlineStr"/>
       <c r="H1220" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
       <c r="E1221" t="inlineStr">
         <is>
-          <t>SAR92.8B</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr"/>
+      <c r="G1221" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1221" t="inlineStr">
         <is>
           <t>3</t>
@@ -39546,55 +39354,47 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr">
-        <is>
-          <t>SAR72B</t>
-        </is>
-      </c>
+      <c r="E1222" t="inlineStr"/>
       <c r="F1222" t="inlineStr"/>
       <c r="G1222" t="inlineStr"/>
       <c r="H1222" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="E1223" t="inlineStr"/>
       <c r="F1223" t="inlineStr"/>
       <c r="G1223" t="inlineStr"/>
       <c r="H1223" t="inlineStr">
@@ -39606,53 +39406,49 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr">
-        <is>
-          <t>81.3</t>
-        </is>
-      </c>
+      <c r="E1224" t="inlineStr"/>
       <c r="F1224" t="inlineStr"/>
       <c r="G1224" t="inlineStr"/>
       <c r="H1224" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Consumer Confidence FlashJAN</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
       <c r="E1225" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>-14.5</t>
         </is>
       </c>
       <c r="F1225" t="inlineStr"/>
@@ -39666,25 +39462,21 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
+      <c r="E1226" t="inlineStr"/>
       <c r="F1226" t="inlineStr"/>
       <c r="G1226" t="inlineStr"/>
       <c r="H1226" t="inlineStr">
@@ -39696,17 +39488,17 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr"/>
@@ -39715,54 +39507,50 @@
       <c r="G1227" t="inlineStr"/>
       <c r="H1227" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>4-Year Treasury Gilt Auction</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr">
-        <is>
-          <t>4.499%</t>
-        </is>
-      </c>
+      <c r="E1228" t="inlineStr"/>
       <c r="F1228" t="inlineStr"/>
       <c r="G1228" t="inlineStr"/>
       <c r="H1228" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Index-Linked OAT Auction</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
@@ -39778,17 +39566,17 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>OATi Auction</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr"/>
@@ -39804,25 +39592,21 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>Building Permits YoYNOV</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr">
-        <is>
-          <t>21.6%</t>
-        </is>
-      </c>
+      <c r="E1231" t="inlineStr"/>
       <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr"/>
       <c r="H1231" t="inlineStr">
@@ -39834,85 +39618,73 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>Overnight Borrowing RateJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr">
-        <is>
-          <t>46%</t>
-        </is>
-      </c>
+      <c r="E1232" t="inlineStr"/>
       <c r="F1232" t="inlineStr"/>
       <c r="G1232" t="inlineStr"/>
       <c r="H1232" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>TCMB Interest Rate Decision</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr">
-        <is>
-          <t>47.5%</t>
-        </is>
-      </c>
+      <c r="E1233" t="inlineStr"/>
       <c r="F1233" t="inlineStr"/>
       <c r="G1233" t="inlineStr"/>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
         <is>
-          <t>Overnight Lending RateJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr">
-        <is>
-          <t>49%</t>
-        </is>
-      </c>
+      <c r="E1234" t="inlineStr"/>
       <c r="F1234" t="inlineStr"/>
       <c r="G1234" t="inlineStr"/>
       <c r="H1234" t="inlineStr">
@@ -39924,17 +39696,17 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1235" t="inlineStr"/>
@@ -39950,25 +39722,21 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1236" t="inlineStr"/>
-      <c r="E1236" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1236" t="inlineStr"/>
       <c r="F1236" t="inlineStr"/>
       <c r="G1236" t="inlineStr"/>
       <c r="H1236" t="inlineStr">
@@ -39980,25 +39748,21 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr">
-        <is>
-          <t>3.62%</t>
-        </is>
-      </c>
+      <c r="E1237" t="inlineStr"/>
       <c r="F1237" t="inlineStr"/>
       <c r="G1237" t="inlineStr"/>
       <c r="H1237" t="inlineStr">
@@ -40010,23 +39774,23 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1238" t="inlineStr"/>
       <c r="E1238" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>3.25%</t>
         </is>
       </c>
       <c r="F1238" t="inlineStr"/>
@@ -40040,25 +39804,21 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1239" t="inlineStr"/>
-      <c r="E1239" t="inlineStr">
-        <is>
-          <t>4.44%</t>
-        </is>
-      </c>
+      <c r="E1239" t="inlineStr"/>
       <c r="F1239" t="inlineStr"/>
       <c r="G1239" t="inlineStr"/>
       <c r="H1239" t="inlineStr">
@@ -40070,17 +39830,17 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMNOV</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1240" t="inlineStr"/>
@@ -40089,58 +39849,54 @@
       <c r="G1240" t="inlineStr"/>
       <c r="H1240" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr">
         <is>
-          <t>Retail Sales MoM FinalNOV</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="D1241" t="inlineStr"/>
       <c r="E1241" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.071%</t>
         </is>
       </c>
       <c r="F1241" t="inlineStr"/>
-      <c r="G1241" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="G1241" t="inlineStr"/>
       <c r="H1241" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>Retail Sales MoM PrelDEC</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1242" t="inlineStr"/>
@@ -40149,38 +39905,30 @@
       <c r="G1242" t="inlineStr"/>
       <c r="H1242" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Fed Balance SheetJAN/22</t>
         </is>
       </c>
       <c r="D1243" t="inlineStr"/>
-      <c r="E1243" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="E1243" t="inlineStr"/>
       <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1243" t="inlineStr"/>
       <c r="H1243" t="inlineStr">
         <is>
           <t>3</t>
@@ -40190,21 +39938,25 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1244" t="inlineStr"/>
-      <c r="E1244" t="inlineStr"/>
+      <c r="E1244" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
       <c r="F1244" t="inlineStr"/>
       <c r="G1244" t="inlineStr"/>
       <c r="H1244" t="inlineStr">
@@ -40216,47 +39968,55 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
+          <t>S&amp;P Global Australia Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1245" t="inlineStr"/>
-      <c r="E1245" t="inlineStr"/>
+      <c r="E1245" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F1245" t="inlineStr"/>
       <c r="G1245" t="inlineStr"/>
       <c r="H1245" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
+          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1246" t="inlineStr"/>
-      <c r="E1246" t="inlineStr"/>
+      <c r="E1246" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="F1246" t="inlineStr"/>
       <c r="G1246" t="inlineStr"/>
       <c r="H1246" t="inlineStr">
@@ -40268,131 +40028,159 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>Consumer Confidence FlashJAN</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1247" t="inlineStr"/>
       <c r="E1247" t="inlineStr">
         <is>
-          <t>-14.5</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr"/>
+      <c r="G1247" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1248" t="inlineStr"/>
       <c r="E1248" t="inlineStr"/>
       <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr"/>
+      <c r="G1248" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
         </is>
       </c>
       <c r="D1249" t="inlineStr"/>
       <c r="E1249" t="inlineStr"/>
       <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr"/>
+      <c r="G1249" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1249" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1250" t="inlineStr"/>
-      <c r="E1250" t="inlineStr"/>
+      <c r="E1250" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr"/>
+      <c r="G1250" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+          <t>Westpac Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1251" t="inlineStr"/>
-      <c r="E1251" t="inlineStr"/>
+      <c r="E1251" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr"/>
+      <c r="G1251" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1251" t="inlineStr">
         <is>
           <t>3</t>
@@ -40402,99 +40190,115 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:01 PM</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+          <t>Gfk Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr"/>
+      <c r="E1252" t="inlineStr">
+        <is>
+          <t>-17</t>
+        </is>
+      </c>
       <c r="F1252" t="inlineStr"/>
       <c r="G1252" t="inlineStr"/>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
+          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1253" t="inlineStr"/>
-      <c r="E1253" t="inlineStr"/>
+      <c r="E1253" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="F1253" t="inlineStr"/>
       <c r="G1253" t="inlineStr"/>
       <c r="H1253" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
+          <t>Jibun Bank Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1254" t="inlineStr"/>
-      <c r="E1254" t="inlineStr"/>
+      <c r="E1254" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="F1254" t="inlineStr"/>
       <c r="G1254" t="inlineStr"/>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
+          <t>Jibun Bank Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1255" t="inlineStr"/>
-      <c r="E1255" t="inlineStr"/>
+      <c r="E1255" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F1255" t="inlineStr"/>
       <c r="G1255" t="inlineStr"/>
       <c r="H1255" t="inlineStr">
@@ -40506,21 +40310,25 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+          <t>URA Property Index QoQ FinalQ4</t>
         </is>
       </c>
       <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr"/>
+      <c r="E1256" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="F1256" t="inlineStr"/>
       <c r="G1256" t="inlineStr"/>
       <c r="H1256" t="inlineStr">
@@ -40532,43 +40340,51 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+          <t>BoJ Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr"/>
+      <c r="E1257" t="inlineStr">
+        <is>
+          <t>0.25%</t>
+        </is>
+      </c>
       <c r="F1257" t="inlineStr"/>
-      <c r="G1257" t="inlineStr"/>
+      <c r="G1257" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1257" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>BoJ Quarterly Outlook Report</t>
         </is>
       </c>
       <c r="D1258" t="inlineStr"/>
@@ -40577,28 +40393,32 @@
       <c r="G1258" t="inlineStr"/>
       <c r="H1258" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Foreign Direct Investment YoYQ4</t>
         </is>
       </c>
       <c r="D1259" t="inlineStr"/>
-      <c r="E1259" t="inlineStr"/>
+      <c r="E1259" t="inlineStr">
+        <is>
+          <t>18.55%</t>
+        </is>
+      </c>
       <c r="F1259" t="inlineStr"/>
       <c r="G1259" t="inlineStr"/>
       <c r="H1259" t="inlineStr">
@@ -40608,25 +40428,21 @@
       </c>
     </row>
     <row r="1260">
-      <c r="A1260" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
+      <c r="A1260" t="inlineStr"/>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1260" t="inlineStr"/>
       <c r="E1260" t="inlineStr">
         <is>
-          <t>3.25%</t>
+          <t>2.750%</t>
         </is>
       </c>
       <c r="F1260" t="inlineStr"/>
@@ -40638,25 +40454,25 @@
       </c>
     </row>
     <row r="1261">
-      <c r="A1261" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
+      <c r="A1261" t="inlineStr"/>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/23</t>
+          <t>Federal Tax RevenuesDEC</t>
         </is>
       </c>
       <c r="D1261" t="inlineStr"/>
       <c r="E1261" t="inlineStr"/>
       <c r="F1261" t="inlineStr"/>
-      <c r="G1261" t="inlineStr"/>
+      <c r="G1261" t="inlineStr">
+        <is>
+          <t>BRL 255.1B</t>
+        </is>
+      </c>
       <c r="H1261" t="inlineStr">
         <is>
           <t>3</t>
@@ -40666,195 +40482,203 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1262" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJAN/23</t>
-        </is>
-      </c>
+          <t>Friday January 24 2025</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr"/>
+      <c r="C1262" t="inlineStr"/>
       <c r="D1262" t="inlineStr"/>
       <c r="E1262" t="inlineStr"/>
       <c r="F1262" t="inlineStr"/>
       <c r="G1262" t="inlineStr"/>
-      <c r="H1262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1262" t="inlineStr"/>
     </row>
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>HSBC Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1263" t="inlineStr"/>
       <c r="E1263" t="inlineStr">
         <is>
-          <t>2.071%</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="F1263" t="inlineStr"/>
       <c r="G1263" t="inlineStr"/>
       <c r="H1263" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>HSBC Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1264" t="inlineStr"/>
-      <c r="E1264" t="inlineStr"/>
+      <c r="E1264" t="inlineStr">
+        <is>
+          <t>56.4</t>
+        </is>
+      </c>
       <c r="F1264" t="inlineStr"/>
       <c r="G1264" t="inlineStr"/>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>HSBC Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1265" t="inlineStr"/>
-      <c r="E1265" t="inlineStr"/>
+      <c r="E1265" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
       <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr"/>
       <c r="H1265" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1266" t="inlineStr"/>
       <c r="E1266" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr"/>
+      <c r="G1266" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1266" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FlashJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1267" t="inlineStr"/>
       <c r="E1267" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>8.5%</t>
         </is>
       </c>
       <c r="F1267" t="inlineStr"/>
-      <c r="G1267" t="inlineStr"/>
+      <c r="G1267" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="H1267" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1268" t="inlineStr"/>
       <c r="E1268" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1268" t="inlineStr"/>
-      <c r="G1268" t="inlineStr"/>
+      <c r="G1268" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="H1268" t="inlineStr">
         <is>
           <t>3</t>
@@ -40864,61 +40688,53 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1269" t="inlineStr"/>
       <c r="E1269" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F1269" t="inlineStr"/>
-      <c r="G1269" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1269" t="inlineStr"/>
       <c r="H1269" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1270" t="inlineStr"/>
       <c r="E1270" t="inlineStr"/>
       <c r="F1270" t="inlineStr"/>
-      <c r="G1270" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1270" t="inlineStr"/>
       <c r="H1270" t="inlineStr">
         <is>
           <t>2</t>
@@ -40928,27 +40744,27 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1271" t="inlineStr"/>
-      <c r="E1271" t="inlineStr"/>
+      <c r="E1271" t="inlineStr">
+        <is>
+          <t>47.5</t>
+        </is>
+      </c>
       <c r="F1271" t="inlineStr"/>
-      <c r="G1271" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1271" t="inlineStr"/>
       <c r="H1271" t="inlineStr">
         <is>
           <t>3</t>
@@ -40958,121 +40774,105 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1272" t="inlineStr"/>
-      <c r="E1272" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="E1272" t="inlineStr"/>
       <c r="F1272" t="inlineStr"/>
-      <c r="G1272" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1272" t="inlineStr"/>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1273" t="inlineStr">
         <is>
-          <t>Westpac Leading Index MoMDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1273" t="inlineStr"/>
-      <c r="E1273" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1273" t="inlineStr"/>
       <c r="F1273" t="inlineStr"/>
-      <c r="G1273" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1273" t="inlineStr"/>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>07:01 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1274" t="inlineStr"/>
       <c r="E1274" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F1274" t="inlineStr"/>
       <c r="G1274" t="inlineStr"/>
       <c r="H1274" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1275" t="inlineStr"/>
       <c r="E1275" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="F1275" t="inlineStr"/>
@@ -41086,27 +40886,27 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1276" t="inlineStr"/>
-      <c r="E1276" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="E1276" t="inlineStr"/>
       <c r="F1276" t="inlineStr"/>
-      <c r="G1276" t="inlineStr"/>
+      <c r="G1276" t="inlineStr">
+        <is>
+          <t>45.6</t>
+        </is>
+      </c>
       <c r="H1276" t="inlineStr">
         <is>
           <t>2</t>
@@ -41116,91 +40916,87 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1277" t="inlineStr"/>
       <c r="E1277" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="F1277" t="inlineStr"/>
       <c r="G1277" t="inlineStr"/>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1278" t="inlineStr"/>
       <c r="E1278" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1278" t="inlineStr"/>
       <c r="G1278" t="inlineStr"/>
       <c r="H1278" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1279" t="inlineStr"/>
       <c r="E1279" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1279" t="inlineStr"/>
-      <c r="G1279" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1279" t="inlineStr"/>
       <c r="H1279" t="inlineStr">
         <is>
           <t>1</t>
@@ -41210,49 +41006,53 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1280" t="inlineStr"/>
-      <c r="E1280" t="inlineStr"/>
+      <c r="E1280" t="inlineStr">
+        <is>
+          <t>50.4</t>
+        </is>
+      </c>
       <c r="F1280" t="inlineStr"/>
       <c r="G1280" t="inlineStr"/>
       <c r="H1280" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1281" t="inlineStr"/>
       <c r="E1281" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1281" t="inlineStr"/>
@@ -41264,75 +41064,107 @@
       </c>
     </row>
     <row r="1282">
-      <c r="A1282" t="inlineStr"/>
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
         <is>
-          <t>20-Year KTB Auction</t>
+          <t>CBI Business Optimism IndexQ1</t>
         </is>
       </c>
       <c r="D1282" t="inlineStr"/>
       <c r="E1282" t="inlineStr">
         <is>
-          <t>2.750%</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="F1282" t="inlineStr"/>
-      <c r="G1282" t="inlineStr"/>
+      <c r="G1282" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="H1282" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1283">
-      <c r="A1283" t="inlineStr"/>
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr">
         <is>
-          <t>Federal Tax RevenuesDEC</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1283" t="inlineStr"/>
-      <c r="E1283" t="inlineStr"/>
+      <c r="E1283" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
       <c r="F1283" t="inlineStr"/>
       <c r="G1283" t="inlineStr">
         <is>
-          <t>BRL 255.1B</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="H1283" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1284" t="inlineStr"/>
-      <c r="C1284" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>CBI Industrial Trends OrdersJAN</t>
+        </is>
+      </c>
       <c r="D1284" t="inlineStr"/>
-      <c r="E1284" t="inlineStr"/>
+      <c r="E1284" t="inlineStr">
+        <is>
+          <t>-40</t>
+        </is>
+      </c>
       <c r="F1284" t="inlineStr"/>
       <c r="G1284" t="inlineStr"/>
-      <c r="H1284" t="inlineStr"/>
+      <c r="H1284" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr">
@@ -41342,37 +41174,33 @@
       </c>
       <c r="C1285" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1285" t="inlineStr"/>
-      <c r="E1285" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
+      <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
       <c r="H1285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1286" t="inlineStr"/>
@@ -41382,71 +41210,71 @@
         </is>
       </c>
       <c r="F1286" t="inlineStr"/>
-      <c r="G1286" t="inlineStr"/>
+      <c r="G1286" t="inlineStr">
+        <is>
+          <t>56.2</t>
+        </is>
+      </c>
       <c r="H1286" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1287" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1287" t="inlineStr"/>
       <c r="E1287" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1287" t="inlineStr"/>
       <c r="G1287" t="inlineStr"/>
       <c r="H1287" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1288" t="inlineStr"/>
       <c r="E1288" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1288" t="inlineStr"/>
-      <c r="G1288" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1288" t="inlineStr"/>
       <c r="H1288" t="inlineStr">
         <is>
           <t>3</t>
@@ -41456,119 +41284,123 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1289" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1289" t="inlineStr"/>
       <c r="E1289" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1289" t="inlineStr"/>
       <c r="G1289" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H1289" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1290" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1290" t="inlineStr"/>
       <c r="E1290" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1290" t="inlineStr"/>
       <c r="G1290" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1290" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1291" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1291" t="inlineStr"/>
-      <c r="E1291" t="inlineStr">
-        <is>
-          <t>41.9</t>
-        </is>
-      </c>
+      <c r="E1291" t="inlineStr"/>
       <c r="F1291" t="inlineStr"/>
-      <c r="G1291" t="inlineStr"/>
+      <c r="G1291" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1291" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1292" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1292" t="inlineStr"/>
-      <c r="E1292" t="inlineStr"/>
+      <c r="E1292" t="inlineStr">
+        <is>
+          <t>55.4</t>
+        </is>
+      </c>
       <c r="F1292" t="inlineStr"/>
       <c r="G1292" t="inlineStr"/>
       <c r="H1292" t="inlineStr">
@@ -41580,73 +41412,77 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1293" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1293" t="inlineStr"/>
       <c r="E1293" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F1293" t="inlineStr"/>
       <c r="G1293" t="inlineStr"/>
       <c r="H1293" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1294" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1294" t="inlineStr"/>
-      <c r="E1294" t="inlineStr"/>
+      <c r="E1294" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="F1294" t="inlineStr"/>
       <c r="G1294" t="inlineStr"/>
       <c r="H1294" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1295" t="inlineStr"/>
@@ -41655,32 +41491,28 @@
       <c r="G1295" t="inlineStr"/>
       <c r="H1295" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1296" t="inlineStr"/>
-      <c r="E1296" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+      <c r="E1296" t="inlineStr"/>
       <c r="F1296" t="inlineStr"/>
       <c r="G1296" t="inlineStr"/>
       <c r="H1296" t="inlineStr">
@@ -41692,27 +41524,35 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1297" t="inlineStr"/>
       <c r="E1297" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1297" t="inlineStr"/>
-      <c r="G1297" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F1297" t="inlineStr">
+        <is>
+          <t>73.2</t>
+        </is>
+      </c>
+      <c r="G1297" t="inlineStr">
+        <is>
+          <t>73.2</t>
+        </is>
+      </c>
       <c r="H1297" t="inlineStr">
         <is>
           <t>2</t>
@@ -41722,143 +41562,171 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1298" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1298" t="inlineStr"/>
-      <c r="E1298" t="inlineStr"/>
-      <c r="F1298" t="inlineStr"/>
+      <c r="E1298" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1298" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1298" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1298" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1299" t="inlineStr"/>
       <c r="E1299" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1299" t="inlineStr"/>
-      <c r="G1299" t="inlineStr"/>
+      <c r="G1299" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
       <c r="H1299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1300" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1300" t="inlineStr"/>
       <c r="E1300" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F1300" t="inlineStr"/>
-      <c r="G1300" t="inlineStr"/>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="F1300" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
+      <c r="G1300" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
       <c r="H1300" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1301" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1301" t="inlineStr"/>
       <c r="E1301" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1301" t="inlineStr"/>
-      <c r="G1301" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1301" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G1301" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="H1301" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1302" t="inlineStr"/>
       <c r="E1302" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="F1302" t="inlineStr"/>
@@ -41872,23 +41740,23 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1303" t="inlineStr"/>
       <c r="E1303" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1303" t="inlineStr"/>
@@ -41902,702 +41770,50 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr">
         <is>
-          <t>CBI Business Optimism IndexQ1</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1304" t="inlineStr"/>
-      <c r="E1304" t="inlineStr">
-        <is>
-          <t>-24</t>
-        </is>
-      </c>
+      <c r="E1304" t="inlineStr"/>
       <c r="F1304" t="inlineStr"/>
-      <c r="G1304" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="G1304" t="inlineStr"/>
       <c r="H1304" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1305" t="inlineStr"/>
-      <c r="E1305" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
+      <c r="E1305" t="inlineStr"/>
       <c r="F1305" t="inlineStr"/>
-      <c r="G1305" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
+      <c r="G1305" t="inlineStr"/>
       <c r="H1305" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1306">
-      <c r="A1306" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1306" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1306" t="inlineStr">
-        <is>
-          <t>CBI Industrial Trends OrdersJAN</t>
-        </is>
-      </c>
-      <c r="D1306" t="inlineStr"/>
-      <c r="E1306" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="F1306" t="inlineStr"/>
-      <c r="G1306" t="inlineStr"/>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1307">
-      <c r="A1307" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1307" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1307" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
-      <c r="D1307" t="inlineStr"/>
-      <c r="E1307" t="inlineStr"/>
-      <c r="F1307" t="inlineStr"/>
-      <c r="G1307" t="inlineStr"/>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1308">
-      <c r="A1308" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1308" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1308" t="inlineStr">
-        <is>
-          <t>CFIB Business BarometerJAN</t>
-        </is>
-      </c>
-      <c r="D1308" t="inlineStr"/>
-      <c r="E1308" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F1308" t="inlineStr"/>
-      <c r="G1308" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1309">
-      <c r="A1309" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1309" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1309" t="inlineStr">
-        <is>
-          <t>Economic Activity MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1309" t="inlineStr"/>
-      <c r="E1309" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1309" t="inlineStr"/>
-      <c r="G1309" t="inlineStr"/>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1310">
-      <c r="A1310" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1310" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1310" t="inlineStr">
-        <is>
-          <t>Economic Activity YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1310" t="inlineStr"/>
-      <c r="E1310" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F1310" t="inlineStr"/>
-      <c r="G1310" t="inlineStr"/>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1311">
-      <c r="A1311" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1311" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1311" t="inlineStr">
-        <is>
-          <t>New Housing Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1311" t="inlineStr"/>
-      <c r="E1311" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1311" t="inlineStr"/>
-      <c r="G1311" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1312">
-      <c r="A1312" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1312" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1312" t="inlineStr">
-        <is>
-          <t>New Housing Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1312" t="inlineStr"/>
-      <c r="E1312" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1312" t="inlineStr"/>
-      <c r="G1312" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1313">
-      <c r="A1313" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1313" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1313" t="inlineStr">
-        <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D1313" t="inlineStr"/>
-      <c r="E1313" t="inlineStr"/>
-      <c r="F1313" t="inlineStr"/>
-      <c r="G1313" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1314">
-      <c r="A1314" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1314" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1314" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1314" t="inlineStr"/>
-      <c r="E1314" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F1314" t="inlineStr"/>
-      <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1315">
-      <c r="A1315" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1315" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1315" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1315" t="inlineStr"/>
-      <c r="E1315" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F1315" t="inlineStr"/>
-      <c r="G1315" t="inlineStr"/>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1316">
-      <c r="A1316" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1316" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1316" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1316" t="inlineStr"/>
-      <c r="E1316" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F1316" t="inlineStr"/>
-      <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1317">
-      <c r="A1317" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1317" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1317" t="inlineStr">
-        <is>
-          <t>Existing Home SalesDEC</t>
-        </is>
-      </c>
-      <c r="D1317" t="inlineStr"/>
-      <c r="E1317" t="inlineStr"/>
-      <c r="F1317" t="inlineStr"/>
-      <c r="G1317" t="inlineStr"/>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1318">
-      <c r="A1318" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1318" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1318" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1318" t="inlineStr"/>
-      <c r="E1318" t="inlineStr"/>
-      <c r="F1318" t="inlineStr"/>
-      <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1319">
-      <c r="A1319" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1319" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1319" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1319" t="inlineStr"/>
-      <c r="E1319" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1319" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="G1319" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1320">
-      <c r="A1320" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1320" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1320" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1320" t="inlineStr"/>
-      <c r="E1320" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1320" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1320" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1321">
-      <c r="A1321" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1321" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1321" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1321" t="inlineStr"/>
-      <c r="E1321" t="inlineStr">
-        <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1321" t="inlineStr"/>
-      <c r="G1321" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1322">
-      <c r="A1322" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1322" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1322" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1322" t="inlineStr"/>
-      <c r="E1322" t="inlineStr">
-        <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1322" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1322" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="H1322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1323">
-      <c r="A1323" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1323" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1323" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1323" t="inlineStr"/>
-      <c r="E1323" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1323" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1323" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1324">
-      <c r="A1324" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1324" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1324" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1324" t="inlineStr"/>
-      <c r="E1324" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F1324" t="inlineStr"/>
-      <c r="G1324" t="inlineStr"/>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1325" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1325" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1325" t="inlineStr"/>
-      <c r="E1325" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F1325" t="inlineStr"/>
-      <c r="G1325" t="inlineStr"/>
-      <c r="H1325" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-24.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1331"/>
+  <dimension ref="A1:H1310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33521,10 +33521,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1026">
@@ -33559,10 +33557,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1027">
@@ -33597,10 +33593,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1028">
@@ -33635,10 +33629,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1029">
@@ -33661,10 +33653,8 @@
       <c r="E1029" t="inlineStr"/>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1030">
@@ -33691,10 +33681,8 @@
       </c>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1031">
@@ -33717,10 +33705,8 @@
       <c r="E1031" t="inlineStr"/>
       <c r="F1031" t="inlineStr"/>
       <c r="G1031" t="inlineStr"/>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1032">
@@ -33747,10 +33733,8 @@
       </c>
       <c r="F1032" t="inlineStr"/>
       <c r="G1032" t="inlineStr"/>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33785,10 +33769,8 @@
           <t>€7.8B</t>
         </is>
       </c>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -33815,10 +33797,8 @@
       </c>
       <c r="F1034" t="inlineStr"/>
       <c r="G1034" t="inlineStr"/>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1035">
@@ -33853,10 +33833,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1036">
@@ -33879,10 +33857,8 @@
       <c r="E1036" t="inlineStr"/>
       <c r="F1036" t="inlineStr"/>
       <c r="G1036" t="inlineStr"/>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -33913,10 +33889,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1038">
@@ -33951,10 +33925,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1039">
@@ -33989,10 +33961,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1040">
@@ -34027,10 +33997,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1041">
@@ -34065,10 +34033,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1042">
@@ -34103,10 +34069,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -34141,10 +34105,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1044">
@@ -34179,10 +34141,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1045">
@@ -34217,10 +34177,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1046">
@@ -34251,10 +34209,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34285,10 +34241,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34319,10 +34273,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34349,10 +34301,8 @@
       </c>
       <c r="F1049" t="inlineStr"/>
       <c r="G1049" t="inlineStr"/>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34379,10 +34329,8 @@
       </c>
       <c r="F1050" t="inlineStr"/>
       <c r="G1050" t="inlineStr"/>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34409,10 +34357,8 @@
       </c>
       <c r="F1051" t="inlineStr"/>
       <c r="G1051" t="inlineStr"/>
-      <c r="H1051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -34439,10 +34385,8 @@
       </c>
       <c r="F1052" t="inlineStr"/>
       <c r="G1052" t="inlineStr"/>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34469,10 +34413,8 @@
       </c>
       <c r="F1053" t="inlineStr"/>
       <c r="G1053" t="inlineStr"/>
-      <c r="H1053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1053" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1054">
@@ -34503,10 +34445,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -34537,10 +34477,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1056">
@@ -34575,10 +34513,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1056" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1057">
@@ -34613,10 +34549,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1058">
@@ -34651,10 +34585,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -34681,10 +34613,8 @@
       </c>
       <c r="F1059" t="inlineStr"/>
       <c r="G1059" t="inlineStr"/>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1060">
@@ -34711,10 +34641,8 @@
       </c>
       <c r="F1060" t="inlineStr"/>
       <c r="G1060" t="inlineStr"/>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -34741,10 +34669,8 @@
       </c>
       <c r="F1061" t="inlineStr"/>
       <c r="G1061" t="inlineStr"/>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1062">
@@ -34771,10 +34697,8 @@
       </c>
       <c r="F1062" t="inlineStr"/>
       <c r="G1062" t="inlineStr"/>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1063">
@@ -34801,10 +34725,8 @@
       </c>
       <c r="F1063" t="inlineStr"/>
       <c r="G1063" t="inlineStr"/>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1064">
@@ -34827,10 +34749,8 @@
       <c r="E1064" t="inlineStr"/>
       <c r="F1064" t="inlineStr"/>
       <c r="G1064" t="inlineStr"/>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -34857,10 +34777,8 @@
       </c>
       <c r="F1065" t="inlineStr"/>
       <c r="G1065" t="inlineStr"/>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1066">
@@ -34887,10 +34805,8 @@
       </c>
       <c r="F1066" t="inlineStr"/>
       <c r="G1066" t="inlineStr"/>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1067">
@@ -34917,10 +34833,8 @@
       </c>
       <c r="F1067" t="inlineStr"/>
       <c r="G1067" t="inlineStr"/>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1068">
@@ -34951,10 +34865,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1069">
@@ -34989,10 +34901,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -35019,10 +34929,8 @@
       </c>
       <c r="F1070" t="inlineStr"/>
       <c r="G1070" t="inlineStr"/>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1071">
@@ -35053,10 +34961,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1072">
@@ -35087,10 +34993,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
@@ -35125,10 +35029,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1074">
@@ -35163,10 +35065,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1075">
@@ -35201,10 +35101,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1076">
@@ -35239,10 +35137,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1077">
@@ -35277,10 +35173,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1078">
@@ -35311,10 +35205,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35349,10 +35241,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1080">
@@ -35379,94 +35269,108 @@
       </c>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1081" t="inlineStr"/>
-      <c r="C1081" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>Housing StartsDEC</t>
+        </is>
+      </c>
       <c r="D1081" t="inlineStr"/>
-      <c r="E1081" t="inlineStr"/>
-      <c r="F1081" t="inlineStr"/>
-      <c r="G1081" t="inlineStr"/>
-      <c r="H1081" t="inlineStr"/>
+      <c r="E1081" t="inlineStr">
+        <is>
+          <t>1.289M</t>
+        </is>
+      </c>
+      <c r="F1081" t="inlineStr">
+        <is>
+          <t>1.32M</t>
+        </is>
+      </c>
+      <c r="G1081" t="inlineStr">
+        <is>
+          <t>1.32M</t>
+        </is>
+      </c>
+      <c r="H1081" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1082" t="inlineStr"/>
       <c r="E1082" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1082" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1082" t="inlineStr"/>
       <c r="G1082" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="H1082" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1083" t="inlineStr"/>
       <c r="E1083" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1083" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1083" t="inlineStr"/>
       <c r="G1083" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1083" t="inlineStr">
@@ -35478,105 +35382,97 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IF</t>
         </is>
       </c>
       <c r="C1084" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>IMF/World Economic Outlook</t>
         </is>
       </c>
       <c r="D1084" t="inlineStr"/>
-      <c r="E1084" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1084" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1084" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1084" t="inlineStr"/>
+      <c r="F1084" t="inlineStr"/>
+      <c r="G1084" t="inlineStr"/>
       <c r="H1084" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1085" t="inlineStr"/>
       <c r="E1085" t="inlineStr">
         <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F1085" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G1085" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F1085" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G1085" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
       <c r="H1085" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1086" t="inlineStr"/>
       <c r="E1086" t="inlineStr">
         <is>
-          <t>€32B</t>
-        </is>
-      </c>
-      <c r="F1086" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1086" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
       <c r="G1086" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1086" t="inlineStr">
@@ -35588,31 +35484,31 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1087" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1087" t="inlineStr"/>
       <c r="E1087" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F1087" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1087" t="inlineStr"/>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="F1087" t="inlineStr"/>
+      <c r="G1087" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H1087" t="inlineStr">
         <is>
           <t>3</t>
@@ -35622,107 +35518,99 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1088" t="inlineStr"/>
       <c r="E1088" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
-        </is>
-      </c>
-      <c r="F1088" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F1088" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1088" t="inlineStr">
         <is>
-          <t>€-4.2B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1088" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1089" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1089" t="inlineStr"/>
       <c r="E1089" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1089" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F1089" t="inlineStr"/>
       <c r="G1089" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1090" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1090" t="inlineStr"/>
       <c r="E1090" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1090" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G1090" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="F1090" t="inlineStr"/>
+      <c r="G1090" t="inlineStr"/>
       <c r="H1090" t="inlineStr">
         <is>
           <t>3</t>
@@ -35732,35 +35620,27 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1091" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1091" t="inlineStr"/>
       <c r="E1091" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1091" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1091" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1091" t="inlineStr"/>
+      <c r="G1091" t="inlineStr"/>
       <c r="H1091" t="inlineStr">
         <is>
           <t>3</t>
@@ -35770,59 +35650,55 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1092" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1092" t="inlineStr"/>
       <c r="E1092" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1092" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1092" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1092" t="inlineStr"/>
+      <c r="G1092" t="inlineStr"/>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1093" t="inlineStr"/>
-      <c r="E1093" t="inlineStr"/>
+      <c r="E1093" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F1093" t="inlineStr"/>
       <c r="G1093" t="inlineStr"/>
       <c r="H1093" t="inlineStr">
@@ -35834,31 +35710,27 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1094" t="inlineStr"/>
       <c r="E1094" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F1094" t="inlineStr"/>
-      <c r="G1094" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G1094" t="inlineStr"/>
       <c r="H1094" t="inlineStr">
         <is>
           <t>3</t>
@@ -35866,23 +35738,23 @@
       </c>
     </row>
     <row r="1095">
-      <c r="A1095" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
+      <c r="A1095" t="inlineStr"/>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1095" t="inlineStr"/>
-      <c r="E1095" t="inlineStr"/>
+      <c r="E1095" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F1095" t="inlineStr"/>
       <c r="G1095" t="inlineStr"/>
       <c r="H1095" t="inlineStr">
@@ -35894,311 +35766,287 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1096" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1096" t="inlineStr">
-        <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr"/>
+      <c r="C1096" t="inlineStr"/>
       <c r="D1096" t="inlineStr"/>
-      <c r="E1096" t="inlineStr">
-        <is>
-          <t>11.5%</t>
-        </is>
-      </c>
+      <c r="E1096" t="inlineStr"/>
       <c r="F1096" t="inlineStr"/>
       <c r="G1096" t="inlineStr"/>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1096" t="inlineStr"/>
     </row>
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1097" t="inlineStr"/>
       <c r="E1097" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F1097" t="inlineStr"/>
-      <c r="G1097" t="inlineStr"/>
+      <c r="G1097" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1097" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1098" t="inlineStr"/>
       <c r="E1098" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1098" t="inlineStr"/>
-      <c r="G1098" t="inlineStr"/>
+      <c r="G1098" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1098" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1099" t="inlineStr"/>
       <c r="E1099" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr"/>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1100" t="inlineStr"/>
       <c r="E1100" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1100" t="inlineStr"/>
       <c r="G1100" t="inlineStr"/>
       <c r="H1100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1101" t="inlineStr"/>
       <c r="E1101" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1101" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
-      <c r="G1101" t="inlineStr">
-        <is>
-          <t>1.48M</t>
-        </is>
-      </c>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F1101" t="inlineStr"/>
+      <c r="G1101" t="inlineStr"/>
       <c r="H1101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1102" t="inlineStr"/>
       <c r="E1102" t="inlineStr">
         <is>
-          <t>1.289M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1102" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G1102" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1103" t="inlineStr"/>
       <c r="E1103" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1103" t="inlineStr"/>
       <c r="G1103" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1104" t="inlineStr"/>
       <c r="E1104" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1104" t="inlineStr"/>
-      <c r="G1104" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="G1104" t="inlineStr"/>
       <c r="H1104" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1105">
-      <c r="A1105" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A1105" t="inlineStr"/>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>IF</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1105" t="inlineStr">
         <is>
-          <t>IMF/World Economic Outlook</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1105" t="inlineStr"/>
@@ -36207,112 +36055,84 @@
       <c r="G1105" t="inlineStr"/>
       <c r="H1105" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B1106" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1106" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr"/>
+      <c r="C1106" t="inlineStr"/>
       <c r="D1106" t="inlineStr"/>
-      <c r="E1106" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1106" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1106" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E1106" t="inlineStr"/>
+      <c r="F1106" t="inlineStr"/>
+      <c r="G1106" t="inlineStr"/>
+      <c r="H1106" t="inlineStr"/>
     </row>
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1107" t="inlineStr"/>
       <c r="E1107" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1107" t="inlineStr">
-        <is>
-          <t>77%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1107" t="inlineStr"/>
       <c r="G1107" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1108" t="inlineStr"/>
       <c r="E1108" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1108" t="inlineStr">
@@ -36324,33 +36144,29 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1109" t="inlineStr"/>
       <c r="E1109" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1109" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1109" t="inlineStr">
@@ -36362,31 +36178,27 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1110" t="inlineStr"/>
       <c r="E1110" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1110" t="inlineStr"/>
-      <c r="G1110" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1110" t="inlineStr"/>
       <c r="H1110" t="inlineStr">
         <is>
           <t>3</t>
@@ -36396,25 +36208,21 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1111" t="inlineStr"/>
-      <c r="E1111" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1111" t="inlineStr"/>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
       <c r="H1111" t="inlineStr">
@@ -36426,25 +36234,21 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1112" t="inlineStr"/>
-      <c r="E1112" t="inlineStr">
-        <is>
-          <t>584</t>
-        </is>
-      </c>
+      <c r="E1112" t="inlineStr"/>
       <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr"/>
       <c r="H1112" t="inlineStr">
@@ -36456,57 +36260,61 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1113" t="inlineStr"/>
       <c r="E1113" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr"/>
       <c r="H1113" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1114" t="inlineStr"/>
       <c r="E1114" t="inlineStr">
         <is>
-          <t>$92.1B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1114" t="inlineStr"/>
-      <c r="G1114" t="inlineStr"/>
+      <c r="G1114" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1114" t="inlineStr">
         <is>
           <t>3</t>
@@ -36516,23 +36324,23 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1115" t="inlineStr"/>
       <c r="E1115" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>2.489%</t>
         </is>
       </c>
       <c r="F1115" t="inlineStr"/>
@@ -36544,21 +36352,25 @@
       </c>
     </row>
     <row r="1116">
-      <c r="A1116" t="inlineStr"/>
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1116" t="inlineStr"/>
       <c r="E1116" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>2.691%</t>
         </is>
       </c>
       <c r="F1116" t="inlineStr"/>
@@ -36572,45 +36384,53 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1117" t="inlineStr"/>
-      <c r="C1117" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1117" t="inlineStr"/>
-      <c r="E1117" t="inlineStr"/>
+      <c r="E1117" t="inlineStr">
+        <is>
+          <t>2.593%</t>
+        </is>
+      </c>
       <c r="F1117" t="inlineStr"/>
       <c r="G1117" t="inlineStr"/>
-      <c r="H1117" t="inlineStr"/>
+      <c r="H1117" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D1118" t="inlineStr"/>
-      <c r="E1118" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E1118" t="inlineStr"/>
       <c r="F1118" t="inlineStr"/>
-      <c r="G1118" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1118" t="inlineStr"/>
       <c r="H1118" t="inlineStr">
         <is>
           <t>2</t>
@@ -36620,121 +36440,129 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1119" t="inlineStr"/>
       <c r="E1119" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1119" t="inlineStr"/>
       <c r="G1119" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1120" t="inlineStr"/>
       <c r="E1120" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1120" t="inlineStr"/>
-      <c r="G1120" t="inlineStr"/>
+      <c r="G1120" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1121" t="inlineStr"/>
       <c r="E1121" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1121" t="inlineStr"/>
-      <c r="G1121" t="inlineStr"/>
+      <c r="G1121" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1121" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1122" t="inlineStr"/>
-      <c r="E1122" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1122" t="inlineStr"/>
       <c r="F1122" t="inlineStr"/>
-      <c r="G1122" t="inlineStr"/>
+      <c r="G1122" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1122" t="inlineStr">
         <is>
           <t>3</t>
@@ -36744,33 +36572,29 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1123" t="inlineStr"/>
       <c r="E1123" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1123" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1123" t="inlineStr"/>
       <c r="G1123" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H1123" t="inlineStr">
@@ -36782,7 +36606,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr">
@@ -36792,21 +36616,17 @@
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1124" t="inlineStr"/>
       <c r="E1124" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F1124" t="inlineStr"/>
-      <c r="G1124" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1124" t="inlineStr"/>
       <c r="H1124" t="inlineStr">
         <is>
           <t>3</t>
@@ -36814,25 +36634,21 @@
       </c>
     </row>
     <row r="1125">
-      <c r="A1125" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1125" t="inlineStr"/>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1125" t="inlineStr"/>
       <c r="E1125" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1125" t="inlineStr"/>
@@ -36847,16 +36663,20 @@
       <c r="A1126" t="inlineStr"/>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1126" t="inlineStr"/>
-      <c r="E1126" t="inlineStr"/>
+      <c r="E1126" t="inlineStr">
+        <is>
+          <t>-27.9%</t>
+        </is>
+      </c>
       <c r="F1126" t="inlineStr"/>
       <c r="G1126" t="inlineStr"/>
       <c r="H1126" t="inlineStr">
@@ -36866,79 +36686,79 @@
       </c>
     </row>
     <row r="1127">
-      <c r="A1127" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1127" t="inlineStr"/>
-      <c r="C1127" t="inlineStr"/>
+      <c r="A1127" t="inlineStr"/>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>Consumer ConfidenceDEC</t>
+        </is>
+      </c>
       <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr"/>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>80.6</t>
+        </is>
+      </c>
       <c r="F1127" t="inlineStr"/>
-      <c r="G1127" t="inlineStr"/>
-      <c r="H1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H1127" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1128">
-      <c r="A1128" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1128" t="inlineStr"/>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>BCB Focus Market Readout</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr"/>
-      <c r="E1128" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1128" t="inlineStr"/>
       <c r="F1128" t="inlineStr"/>
-      <c r="G1128" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1128" t="inlineStr"/>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1129">
-      <c r="A1129" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1129" t="inlineStr"/>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F1129" t="inlineStr"/>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr">
@@ -36948,31 +36768,27 @@
       </c>
     </row>
     <row r="1130">
-      <c r="A1130" t="inlineStr">
-        <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
+      <c r="A1130" t="inlineStr"/>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1130" t="inlineStr"/>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1130" t="inlineStr">
@@ -36982,11 +36798,7 @@
       </c>
     </row>
     <row r="1131">
-      <c r="A1131" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1131" t="inlineStr"/>
       <c r="B1131" t="inlineStr">
         <is>
           <t>EA</t>
@@ -36994,15 +36806,11 @@
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
-      <c r="E1131" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1131" t="inlineStr"/>
       <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr"/>
       <c r="H1131" t="inlineStr">
@@ -37014,47 +36822,39 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1132" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1132" t="inlineStr">
-        <is>
-          <t>3-Month Bubill Auction</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr"/>
+      <c r="C1132" t="inlineStr"/>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr"/>
       <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr"/>
-      <c r="H1132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1132" t="inlineStr"/>
     </row>
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
-      <c r="E1133" t="inlineStr"/>
+      <c r="E1133" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
+      </c>
       <c r="F1133" t="inlineStr"/>
       <c r="G1133" t="inlineStr"/>
       <c r="H1133" t="inlineStr">
@@ -37066,23 +36866,23 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr"/>
@@ -37096,179 +36896,191 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="F1135" t="inlineStr"/>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>$ 10B</t>
-        </is>
-      </c>
+      <c r="G1135" t="inlineStr"/>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>2.489%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1136" t="inlineStr"/>
-      <c r="G1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>2.691%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr"/>
+      <c r="G1137" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>2.593%</t>
+          <t>173K</t>
         </is>
       </c>
       <c r="F1138" t="inlineStr"/>
       <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
-      <c r="E1139" t="inlineStr"/>
+      <c r="E1139" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1139" t="inlineStr"/>
-      <c r="G1139" t="inlineStr"/>
+      <c r="G1139" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0.3K</t>
         </is>
       </c>
       <c r="F1140" t="inlineStr"/>
       <c r="G1140" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-5K</t>
         </is>
       </c>
       <c r="H1140" t="inlineStr">
@@ -37280,29 +37092,29 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-35K</t>
         </is>
       </c>
       <c r="F1141" t="inlineStr"/>
       <c r="G1141" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>20K</t>
         </is>
       </c>
       <c r="H1141" t="inlineStr">
@@ -37314,31 +37126,27 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1142" t="inlineStr"/>
       <c r="H1142" t="inlineStr">
         <is>
           <t>3</t>
@@ -37348,27 +37156,27 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
-      <c r="E1143" t="inlineStr"/>
+      <c r="E1143" t="inlineStr">
+        <is>
+          <t>-3%</t>
+        </is>
+      </c>
       <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1143" t="inlineStr"/>
       <c r="H1143" t="inlineStr">
         <is>
           <t>3</t>
@@ -37378,17 +37186,17 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
@@ -37398,11 +37206,7 @@
         </is>
       </c>
       <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1144" t="inlineStr"/>
       <c r="H1144" t="inlineStr">
         <is>
           <t>3</t>
@@ -37412,75 +37216,83 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr"/>
       <c r="G1145" t="inlineStr"/>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1146">
-      <c r="A1146" t="inlineStr"/>
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>05:00 AM</t>
+        </is>
+      </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1146" t="inlineStr"/>
       <c r="G1146" t="inlineStr"/>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1147">
-      <c r="A1147" t="inlineStr"/>
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>05:00 AM</t>
+        </is>
+      </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1147" t="inlineStr"/>
@@ -37492,29 +37304,25 @@
       </c>
     </row>
     <row r="1148">
-      <c r="A1148" t="inlineStr"/>
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
-      <c r="E1148" t="inlineStr">
-        <is>
-          <t>80.6</t>
-        </is>
-      </c>
+      <c r="E1148" t="inlineStr"/>
       <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
+      <c r="G1148" t="inlineStr"/>
       <c r="H1148" t="inlineStr">
         <is>
           <t>3</t>
@@ -37522,19 +37330,27 @@
       </c>
     </row>
     <row r="1149">
-      <c r="A1149" t="inlineStr"/>
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>BCB Focus Market Readout</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr"/>
-      <c r="E1149" t="inlineStr"/>
+      <c r="E1149" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1149" t="inlineStr"/>
       <c r="G1149" t="inlineStr"/>
       <c r="H1149" t="inlineStr">
@@ -37544,29 +37360,29 @@
       </c>
     </row>
     <row r="1150">
-      <c r="A1150" t="inlineStr"/>
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G1150" t="inlineStr"/>
       <c r="H1150" t="inlineStr">
         <is>
           <t>3</t>
@@ -37574,95 +37390,131 @@
       </c>
     </row>
     <row r="1151">
-      <c r="A1151" t="inlineStr"/>
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1152">
-      <c r="A1152" t="inlineStr"/>
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr"/>
+      <c r="E1152" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr"/>
+      <c r="G1152" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr"/>
-      <c r="C1153" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMDEC</t>
+        </is>
+      </c>
       <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr"/>
+      <c r="E1153" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr"/>
-      <c r="H1153" t="inlineStr"/>
+      <c r="G1153" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H1153" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>3.18%</t>
-        </is>
-      </c>
+      <c r="E1154" t="inlineStr"/>
       <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr"/>
+      <c r="G1154" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -37672,27 +37524,31 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr"/>
+      <c r="G1155" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1155" t="inlineStr">
         <is>
           <t>3</t>
@@ -37702,159 +37558,147 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>-1.9%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F1156" t="inlineStr"/>
-      <c r="G1156" t="inlineStr"/>
+      <c r="G1156" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1157" t="inlineStr"/>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1158" t="inlineStr"/>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>4.180%</t>
         </is>
       </c>
       <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G1160" t="inlineStr"/>
       <c r="H1160" t="inlineStr">
         <is>
           <t>3</t>
@@ -37864,95 +37708,79 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>0.3K</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1162" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr"/>
+      <c r="C1162" t="inlineStr"/>
       <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E1162" t="inlineStr"/>
       <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1162" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1162" t="inlineStr"/>
+      <c r="H1162" t="inlineStr"/>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr"/>
+      <c r="G1163" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H1163" t="inlineStr">
         <is>
           <t>3</t>
@@ -37962,7 +37790,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
@@ -37972,27 +37800,31 @@
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr"/>
+      <c r="G1164" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
@@ -38002,87 +37834,99 @@
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
+      <c r="G1166" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
@@ -38092,15 +37936,11 @@
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
-      <c r="E1168" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E1168" t="inlineStr"/>
       <c r="F1168" t="inlineStr"/>
       <c r="G1168" t="inlineStr"/>
       <c r="H1168" t="inlineStr">
@@ -38112,23 +37952,31 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr"/>
+      <c r="E1169" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr"/>
+      <c r="G1169" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1169" t="inlineStr">
         <is>
           <t>3</t>
@@ -38138,23 +37986,23 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
@@ -38168,25 +38016,21 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1171" t="inlineStr"/>
       <c r="F1171" t="inlineStr"/>
       <c r="G1171" t="inlineStr"/>
       <c r="H1171" t="inlineStr">
@@ -38198,99 +38042,79 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
-      <c r="E1172" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E1172" t="inlineStr"/>
       <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1172" t="inlineStr"/>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1173" t="inlineStr"/>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1174" t="inlineStr"/>
       <c r="H1174" t="inlineStr">
         <is>
           <t>2</t>
@@ -38300,27 +38124,23 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1175" t="inlineStr"/>
       <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1175" t="inlineStr"/>
       <c r="H1175" t="inlineStr">
         <is>
           <t>3</t>
@@ -38330,31 +38150,23 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1176" t="inlineStr"/>
       <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1176" t="inlineStr"/>
       <c r="H1176" t="inlineStr">
         <is>
           <t>3</t>
@@ -38364,31 +38176,23 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
           <t>3</t>
@@ -38398,7 +38202,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
@@ -38408,15 +38212,11 @@
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+      <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
       <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
@@ -38428,27 +38228,31 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr"/>
+      <c r="G1179" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1179" t="inlineStr">
         <is>
           <t>3</t>
@@ -38458,23 +38262,31 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr"/>
+      <c r="E1180" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr"/>
+      <c r="G1180" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1180" t="inlineStr">
         <is>
           <t>3</t>
@@ -38484,27 +38296,31 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
       <c r="E1181" t="inlineStr">
         <is>
-          <t>4.180%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr"/>
+      <c r="G1181" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1181" t="inlineStr">
         <is>
           <t>3</t>
@@ -38514,79 +38330,79 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1182" t="inlineStr"/>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr"/>
-      <c r="C1183" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="D1183" t="inlineStr"/>
       <c r="E1183" t="inlineStr"/>
       <c r="F1183" t="inlineStr"/>
       <c r="G1183" t="inlineStr"/>
-      <c r="H1183" t="inlineStr"/>
+      <c r="H1183" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
+      <c r="E1184" t="inlineStr"/>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
+      <c r="G1184" t="inlineStr"/>
       <c r="H1184" t="inlineStr">
         <is>
           <t>3</t>
@@ -38596,63 +38412,59 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
       <c r="G1185" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H1185" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="E1186" t="inlineStr"/>
       <c r="F1186" t="inlineStr"/>
       <c r="G1186" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H1186" t="inlineStr">
@@ -38664,91 +38476,95 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-2.6M</t>
         </is>
       </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1187" t="inlineStr"/>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
       <c r="G1188" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
-      <c r="E1189" t="inlineStr"/>
+      <c r="E1189" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
+      <c r="G1189" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="H1189" t="inlineStr">
         <is>
           <t>3</t>
@@ -38758,81 +38574,81 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>¥-117.6B</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr"/>
       <c r="G1190" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>¥ 100B</t>
         </is>
       </c>
       <c r="H1190" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1191" t="inlineStr"/>
       <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
@@ -38848,21 +38664,25 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr"/>
+      <c r="E1193" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
       <c r="F1193" t="inlineStr"/>
       <c r="G1193" t="inlineStr"/>
       <c r="H1193" t="inlineStr">
@@ -38874,25 +38694,21 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>9.3%</t>
-        </is>
-      </c>
+      <c r="E1194" t="inlineStr"/>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr"/>
       <c r="H1194" t="inlineStr">
@@ -38904,47 +38720,59 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr"/>
+      <c r="E1195" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr"/>
+      <c r="G1195" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F1196" t="inlineStr"/>
       <c r="G1196" t="inlineStr"/>
       <c r="H1196" t="inlineStr">
@@ -38956,17 +38784,17 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
@@ -38982,47 +38810,39 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1198" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1198" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr"/>
+      <c r="C1198" t="inlineStr"/>
       <c r="D1198" t="inlineStr"/>
       <c r="E1198" t="inlineStr"/>
       <c r="F1198" t="inlineStr"/>
       <c r="G1198" t="inlineStr"/>
-      <c r="H1198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1198" t="inlineStr"/>
     </row>
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
+      <c r="E1199" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
       <c r="F1199" t="inlineStr"/>
       <c r="G1199" t="inlineStr"/>
       <c r="H1199" t="inlineStr">
@@ -39034,29 +38854,29 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
       <c r="E1200" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1200" t="inlineStr"/>
       <c r="G1200" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H1200" t="inlineStr">
@@ -39068,29 +38888,29 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
       <c r="E1201" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F1201" t="inlineStr"/>
       <c r="G1201" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1201" t="inlineStr">
@@ -39102,29 +38922,29 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
       <c r="E1202" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1202" t="inlineStr"/>
       <c r="G1202" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1202" t="inlineStr">
@@ -39136,23 +38956,23 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>SAR20.8B</t>
         </is>
       </c>
       <c r="F1203" t="inlineStr"/>
@@ -39166,21 +38986,25 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr"/>
+      <c r="E1204" t="inlineStr">
+        <is>
+          <t>SAR92.8B</t>
+        </is>
+      </c>
       <c r="F1204" t="inlineStr"/>
       <c r="G1204" t="inlineStr"/>
       <c r="H1204" t="inlineStr">
@@ -39192,21 +39016,25 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr"/>
+      <c r="E1205" t="inlineStr">
+        <is>
+          <t>SAR72B</t>
+        </is>
+      </c>
       <c r="F1205" t="inlineStr"/>
       <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
@@ -39218,31 +39046,27 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr"/>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>127.1%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
+      <c r="G1206" t="inlineStr"/>
       <c r="H1206" t="inlineStr">
         <is>
           <t>3</t>
@@ -39252,27 +39076,27 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
-      <c r="E1207" t="inlineStr"/>
+      <c r="E1207" t="inlineStr">
+        <is>
+          <t>81.3</t>
+        </is>
+      </c>
       <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="G1207" t="inlineStr"/>
       <c r="H1207" t="inlineStr">
         <is>
           <t>2</t>
@@ -39282,23 +39106,23 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>-2.6M</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F1208" t="inlineStr"/>
@@ -39312,65 +39136,53 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr"/>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1209" t="inlineStr"/>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="E1210" t="inlineStr"/>
       <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G1210" t="inlineStr"/>
       <c r="H1210" t="inlineStr">
         <is>
           <t>3</t>
@@ -39380,81 +39192,73 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>¥-117.6B</t>
+          <t>4.499%</t>
         </is>
       </c>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
+      <c r="G1211" t="inlineStr"/>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1212" t="inlineStr"/>
       <c r="F1212" t="inlineStr"/>
       <c r="G1212" t="inlineStr"/>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>OATi Auction</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
@@ -39470,23 +39274,23 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>-3.8%</t>
+          <t>21.6%</t>
         </is>
       </c>
       <c r="F1214" t="inlineStr"/>
@@ -39500,83 +39304,83 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr"/>
+      <c r="E1215" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
       <c r="F1215" t="inlineStr"/>
       <c r="G1215" t="inlineStr"/>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
       <c r="E1216" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>47.5%</t>
         </is>
       </c>
       <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1216" t="inlineStr"/>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="F1217" t="inlineStr"/>
@@ -39590,17 +39394,17 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
@@ -39616,37 +39420,53 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr"/>
-      <c r="C1219" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr"/>
+      <c r="E1219" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1219" t="inlineStr"/>
       <c r="G1219" t="inlineStr"/>
-      <c r="H1219" t="inlineStr"/>
+      <c r="H1219" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>1-Year T-Bill Auction</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
       <c r="E1220" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="F1220" t="inlineStr"/>
@@ -39660,31 +39480,27 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
       <c r="E1221" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G1221" t="inlineStr"/>
       <c r="H1221" t="inlineStr">
         <is>
           <t>3</t>
@@ -39694,31 +39510,27 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
       <c r="E1222" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1222" t="inlineStr"/>
       <c r="H1222" t="inlineStr">
         <is>
           <t>3</t>
@@ -39728,121 +39540,117 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Retail Sales Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E1223" t="inlineStr"/>
       <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1223" t="inlineStr"/>
       <c r="H1223" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
       <c r="E1224" t="inlineStr">
         <is>
-          <t>SAR20.8B</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr"/>
+      <c r="G1224" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="H1224" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr">
-        <is>
-          <t>SAR92.8B</t>
-        </is>
-      </c>
+      <c r="E1225" t="inlineStr"/>
       <c r="F1225" t="inlineStr"/>
       <c r="G1225" t="inlineStr"/>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1226" t="inlineStr"/>
       <c r="E1226" t="inlineStr">
         <is>
-          <t>SAR72B</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr"/>
+      <c r="G1226" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1226" t="inlineStr">
         <is>
           <t>3</t>
@@ -39852,137 +39660,125 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="E1227" t="inlineStr"/>
       <c r="F1227" t="inlineStr"/>
       <c r="G1227" t="inlineStr"/>
       <c r="H1227" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr">
-        <is>
-          <t>81.3</t>
-        </is>
-      </c>
+      <c r="E1228" t="inlineStr"/>
       <c r="F1228" t="inlineStr"/>
       <c r="G1228" t="inlineStr"/>
       <c r="H1228" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
+      <c r="E1229" t="inlineStr"/>
       <c r="F1229" t="inlineStr"/>
       <c r="G1229" t="inlineStr"/>
       <c r="H1229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>Consumer Confidence FlashJAN</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr"/>
       <c r="E1230" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>-14.5</t>
         </is>
       </c>
       <c r="F1230" t="inlineStr"/>
       <c r="G1230" t="inlineStr"/>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1231" t="inlineStr"/>
@@ -39998,47 +39794,43 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>4-Year Treasury Gilt Auction</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr">
-        <is>
-          <t>4.499%</t>
-        </is>
-      </c>
+      <c r="E1232" t="inlineStr"/>
       <c r="F1232" t="inlineStr"/>
       <c r="G1232" t="inlineStr"/>
       <c r="H1232" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>Index-Linked OAT Auction</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1233" t="inlineStr"/>
@@ -40047,24 +39839,24 @@
       <c r="G1233" t="inlineStr"/>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
         <is>
-          <t>OATi Auction</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1234" t="inlineStr"/>
@@ -40080,25 +39872,21 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t>Building Permits YoYNOV</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr">
-        <is>
-          <t>21.6%</t>
-        </is>
-      </c>
+      <c r="E1235" t="inlineStr"/>
       <c r="F1235" t="inlineStr"/>
       <c r="G1235" t="inlineStr"/>
       <c r="H1235" t="inlineStr">
@@ -40110,85 +39898,73 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
         <is>
-          <t>Overnight Borrowing RateJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1236" t="inlineStr"/>
-      <c r="E1236" t="inlineStr">
-        <is>
-          <t>46%</t>
-        </is>
-      </c>
+      <c r="E1236" t="inlineStr"/>
       <c r="F1236" t="inlineStr"/>
       <c r="G1236" t="inlineStr"/>
       <c r="H1236" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>TCMB Interest Rate Decision</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr">
-        <is>
-          <t>47.5%</t>
-        </is>
-      </c>
+      <c r="E1237" t="inlineStr"/>
       <c r="F1237" t="inlineStr"/>
       <c r="G1237" t="inlineStr"/>
       <c r="H1237" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t>Overnight Lending RateJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr">
-        <is>
-          <t>49%</t>
-        </is>
-      </c>
+      <c r="E1238" t="inlineStr"/>
       <c r="F1238" t="inlineStr"/>
       <c r="G1238" t="inlineStr"/>
       <c r="H1238" t="inlineStr">
@@ -40200,17 +39976,17 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1239" t="inlineStr"/>
@@ -40226,25 +40002,21 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1240" t="inlineStr"/>
-      <c r="E1240" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1240" t="inlineStr"/>
       <c r="F1240" t="inlineStr"/>
       <c r="G1240" t="inlineStr"/>
       <c r="H1240" t="inlineStr">
@@ -40256,25 +40028,21 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr">
-        <is>
-          <t>3.62%</t>
-        </is>
-      </c>
+      <c r="E1241" t="inlineStr"/>
       <c r="F1241" t="inlineStr"/>
       <c r="G1241" t="inlineStr"/>
       <c r="H1241" t="inlineStr">
@@ -40286,25 +40054,21 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr">
-        <is>
-          <t>0.42%</t>
-        </is>
-      </c>
+      <c r="E1242" t="inlineStr"/>
       <c r="F1242" t="inlineStr"/>
       <c r="G1242" t="inlineStr"/>
       <c r="H1242" t="inlineStr">
@@ -40316,23 +40080,23 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1243" t="inlineStr"/>
       <c r="E1243" t="inlineStr">
         <is>
-          <t>4.44%</t>
+          <t>3.25%</t>
         </is>
       </c>
       <c r="F1243" t="inlineStr"/>
@@ -40346,17 +40110,17 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMNOV</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1244" t="inlineStr"/>
@@ -40365,98 +40129,86 @@
       <c r="G1244" t="inlineStr"/>
       <c r="H1244" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
         <is>
-          <t>Retail Sales MoM FinalNOV</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1245" t="inlineStr"/>
-      <c r="E1245" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="E1245" t="inlineStr"/>
       <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="G1245" t="inlineStr"/>
       <c r="H1245" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
         <is>
-          <t>Retail Sales MoM PrelDEC</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="D1246" t="inlineStr"/>
-      <c r="E1246" t="inlineStr"/>
+      <c r="E1246" t="inlineStr">
+        <is>
+          <t>2.071%</t>
+        </is>
+      </c>
       <c r="F1246" t="inlineStr"/>
       <c r="G1246" t="inlineStr"/>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1247" t="inlineStr"/>
-      <c r="E1247" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="E1247" t="inlineStr"/>
       <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1247" t="inlineStr"/>
       <c r="H1247" t="inlineStr">
         <is>
           <t>3</t>
@@ -40466,7 +40218,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
@@ -40476,7 +40228,7 @@
       </c>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
+          <t>Fed Balance SheetJAN/22</t>
         </is>
       </c>
       <c r="D1248" t="inlineStr"/>
@@ -40485,138 +40237,158 @@
       <c r="G1248" t="inlineStr"/>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1249" t="inlineStr"/>
-      <c r="E1249" t="inlineStr"/>
+      <c r="E1249" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
       <c r="F1249" t="inlineStr"/>
       <c r="G1249" t="inlineStr"/>
       <c r="H1249" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
+          <t>S&amp;P Global Australia Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1250" t="inlineStr"/>
-      <c r="E1250" t="inlineStr"/>
+      <c r="E1250" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F1250" t="inlineStr"/>
       <c r="G1250" t="inlineStr"/>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>Consumer Confidence FlashJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1251" t="inlineStr"/>
       <c r="E1251" t="inlineStr">
         <is>
-          <t>-14.5</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="F1251" t="inlineStr"/>
       <c r="G1251" t="inlineStr"/>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr"/>
+      <c r="E1252" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr"/>
+      <c r="G1252" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1253" t="inlineStr"/>
       <c r="E1253" t="inlineStr"/>
       <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr"/>
+      <c r="G1253" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1253" t="inlineStr">
         <is>
           <t>2</t>
@@ -40626,49 +40398,61 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
         </is>
       </c>
       <c r="D1254" t="inlineStr"/>
       <c r="E1254" t="inlineStr"/>
       <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr"/>
+      <c r="G1254" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1255" t="inlineStr"/>
-      <c r="E1255" t="inlineStr"/>
+      <c r="E1255" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1255" t="inlineStr"/>
-      <c r="G1255" t="inlineStr"/>
+      <c r="G1255" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1255" t="inlineStr">
         <is>
           <t>3</t>
@@ -40678,23 +40462,31 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+          <t>Westpac Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr"/>
+      <c r="E1256" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F1256" t="inlineStr"/>
-      <c r="G1256" t="inlineStr"/>
+      <c r="G1256" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1256" t="inlineStr">
         <is>
           <t>3</t>
@@ -40704,99 +40496,115 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:01 PM</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
+          <t>Gfk Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr"/>
+      <c r="E1257" t="inlineStr">
+        <is>
+          <t>-17</t>
+        </is>
+      </c>
       <c r="F1257" t="inlineStr"/>
       <c r="G1257" t="inlineStr"/>
       <c r="H1257" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
+          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1258" t="inlineStr"/>
-      <c r="E1258" t="inlineStr"/>
+      <c r="E1258" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="F1258" t="inlineStr"/>
       <c r="G1258" t="inlineStr"/>
       <c r="H1258" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
+          <t>Jibun Bank Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1259" t="inlineStr"/>
-      <c r="E1259" t="inlineStr"/>
+      <c r="E1259" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="F1259" t="inlineStr"/>
       <c r="G1259" t="inlineStr"/>
       <c r="H1259" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+          <t>Jibun Bank Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1260" t="inlineStr"/>
-      <c r="E1260" t="inlineStr"/>
+      <c r="E1260" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F1260" t="inlineStr"/>
       <c r="G1260" t="inlineStr"/>
       <c r="H1260" t="inlineStr">
@@ -40808,21 +40616,25 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+          <t>URA Property Index QoQ FinalQ4</t>
         </is>
       </c>
       <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr"/>
+      <c r="E1261" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="F1261" t="inlineStr"/>
       <c r="G1261" t="inlineStr"/>
       <c r="H1261" t="inlineStr">
@@ -40834,43 +40646,51 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1262" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>BoJ Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1262" t="inlineStr"/>
-      <c r="E1262" t="inlineStr"/>
+      <c r="E1262" t="inlineStr">
+        <is>
+          <t>0.25%</t>
+        </is>
+      </c>
       <c r="F1262" t="inlineStr"/>
-      <c r="G1262" t="inlineStr"/>
+      <c r="G1262" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1262" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>BoJ Quarterly Outlook Report</t>
         </is>
       </c>
       <c r="D1263" t="inlineStr"/>
@@ -40879,30 +40699,30 @@
       <c r="G1263" t="inlineStr"/>
       <c r="H1263" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>Foreign Direct Investment YoYQ4</t>
         </is>
       </c>
       <c r="D1264" t="inlineStr"/>
       <c r="E1264" t="inlineStr">
         <is>
-          <t>3.25%</t>
+          <t>18.55%</t>
         </is>
       </c>
       <c r="F1264" t="inlineStr"/>
@@ -40914,23 +40734,23 @@
       </c>
     </row>
     <row r="1265">
-      <c r="A1265" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
+      <c r="A1265" t="inlineStr"/>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/23</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1265" t="inlineStr"/>
-      <c r="E1265" t="inlineStr"/>
+      <c r="E1265" t="inlineStr">
+        <is>
+          <t>2.750%</t>
+        </is>
+      </c>
       <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr"/>
       <c r="H1265" t="inlineStr">
@@ -40940,25 +40760,25 @@
       </c>
     </row>
     <row r="1266">
-      <c r="A1266" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
+      <c r="A1266" t="inlineStr"/>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/23</t>
+          <t>Federal Tax RevenuesDEC</t>
         </is>
       </c>
       <c r="D1266" t="inlineStr"/>
       <c r="E1266" t="inlineStr"/>
       <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr"/>
+      <c r="G1266" t="inlineStr">
+        <is>
+          <t>BRL 255.1B</t>
+        </is>
+      </c>
       <c r="H1266" t="inlineStr">
         <is>
           <t>3</t>
@@ -40968,105 +40788,97 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1267" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1267" t="inlineStr">
-        <is>
-          <t>10-Year TIPS Auction</t>
-        </is>
-      </c>
+          <t>Friday January 24 2025</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr"/>
+      <c r="C1267" t="inlineStr"/>
       <c r="D1267" t="inlineStr"/>
-      <c r="E1267" t="inlineStr">
-        <is>
-          <t>2.071%</t>
-        </is>
-      </c>
+      <c r="E1267" t="inlineStr"/>
       <c r="F1267" t="inlineStr"/>
       <c r="G1267" t="inlineStr"/>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1267" t="inlineStr"/>
     </row>
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>HSBC Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1268" t="inlineStr"/>
-      <c r="E1268" t="inlineStr"/>
+      <c r="E1268" t="inlineStr">
+        <is>
+          <t>60.7</t>
+        </is>
+      </c>
       <c r="F1268" t="inlineStr"/>
       <c r="G1268" t="inlineStr"/>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>HSBC Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1269" t="inlineStr"/>
-      <c r="E1269" t="inlineStr"/>
+      <c r="E1269" t="inlineStr">
+        <is>
+          <t>56.4</t>
+        </is>
+      </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
       <c r="H1269" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>HSBC Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1270" t="inlineStr"/>
       <c r="E1270" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="F1270" t="inlineStr"/>
@@ -41080,57 +40892,65 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FlashJAN</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1271" t="inlineStr"/>
       <c r="E1271" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F1271" t="inlineStr"/>
-      <c r="G1271" t="inlineStr"/>
+      <c r="G1271" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1271" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1272" t="inlineStr"/>
       <c r="E1272" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>8.5%</t>
         </is>
       </c>
       <c r="F1272" t="inlineStr"/>
-      <c r="G1272" t="inlineStr"/>
+      <c r="G1272" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="H1272" t="inlineStr">
         <is>
           <t>3</t>
@@ -41140,61 +40960,61 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1273" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1273" t="inlineStr"/>
       <c r="E1273" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1273" t="inlineStr"/>
       <c r="G1273" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1274" t="inlineStr"/>
-      <c r="E1274" t="inlineStr"/>
+      <c r="E1274" t="inlineStr">
+        <is>
+          <t>41.9</t>
+        </is>
+      </c>
       <c r="F1274" t="inlineStr"/>
-      <c r="G1274" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1274" t="inlineStr"/>
       <c r="H1274" t="inlineStr">
         <is>
           <t>2</t>
@@ -41204,61 +41024,53 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1275" t="inlineStr"/>
       <c r="E1275" t="inlineStr"/>
       <c r="F1275" t="inlineStr"/>
-      <c r="G1275" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1275" t="inlineStr"/>
       <c r="H1275" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1276" t="inlineStr"/>
       <c r="E1276" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1276" t="inlineStr"/>
-      <c r="G1276" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1276" t="inlineStr"/>
       <c r="H1276" t="inlineStr">
         <is>
           <t>3</t>
@@ -41268,87 +41080,75 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
         <is>
-          <t>Westpac Leading Index MoMDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1277" t="inlineStr"/>
-      <c r="E1277" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1277" t="inlineStr"/>
       <c r="F1277" t="inlineStr"/>
-      <c r="G1277" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1277" t="inlineStr"/>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>07:01 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
+      <c r="E1278" t="inlineStr"/>
       <c r="F1278" t="inlineStr"/>
       <c r="G1278" t="inlineStr"/>
       <c r="H1278" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1279" t="inlineStr"/>
       <c r="E1279" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F1279" t="inlineStr"/>
@@ -41362,23 +41162,23 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1280" t="inlineStr"/>
       <c r="E1280" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="F1280" t="inlineStr"/>
@@ -41392,91 +41192,87 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1281" t="inlineStr"/>
-      <c r="E1281" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="E1281" t="inlineStr"/>
       <c r="F1281" t="inlineStr"/>
-      <c r="G1281" t="inlineStr"/>
+      <c r="G1281" t="inlineStr">
+        <is>
+          <t>45.6</t>
+        </is>
+      </c>
       <c r="H1281" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1282" t="inlineStr"/>
       <c r="E1282" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="F1282" t="inlineStr"/>
       <c r="G1282" t="inlineStr"/>
       <c r="H1282" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1283" t="inlineStr"/>
       <c r="E1283" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1283" t="inlineStr"/>
-      <c r="G1283" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1283" t="inlineStr"/>
       <c r="H1283" t="inlineStr">
         <is>
           <t>1</t>
@@ -41486,49 +41282,53 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1284" t="inlineStr"/>
-      <c r="E1284" t="inlineStr"/>
+      <c r="E1284" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F1284" t="inlineStr"/>
       <c r="G1284" t="inlineStr"/>
       <c r="H1284" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1285" t="inlineStr"/>
       <c r="E1285" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1285" t="inlineStr"/>
@@ -41540,21 +41340,25 @@
       </c>
     </row>
     <row r="1286">
-      <c r="A1286" t="inlineStr"/>
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr">
         <is>
-          <t>20-Year KTB Auction</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1286" t="inlineStr"/>
       <c r="E1286" t="inlineStr">
         <is>
-          <t>2.750%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1286" t="inlineStr"/>
@@ -41566,65 +41370,93 @@
       </c>
     </row>
     <row r="1287">
-      <c r="A1287" t="inlineStr"/>
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1287" t="inlineStr">
         <is>
-          <t>Federal Tax RevenuesDEC</t>
+          <t>CBI Business Optimism IndexQ1</t>
         </is>
       </c>
       <c r="D1287" t="inlineStr"/>
-      <c r="E1287" t="inlineStr"/>
+      <c r="E1287" t="inlineStr">
+        <is>
+          <t>-24</t>
+        </is>
+      </c>
       <c r="F1287" t="inlineStr"/>
       <c r="G1287" t="inlineStr">
         <is>
-          <t>BRL 255.1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H1287" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1288" t="inlineStr"/>
-      <c r="C1288" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>CBI Distributive TradesJAN</t>
+        </is>
+      </c>
       <c r="D1288" t="inlineStr"/>
-      <c r="E1288" t="inlineStr"/>
+      <c r="E1288" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
       <c r="F1288" t="inlineStr"/>
-      <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr"/>
+      <c r="G1288" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="H1288" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1289" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CBI Industrial Trends OrdersJAN</t>
         </is>
       </c>
       <c r="D1289" t="inlineStr"/>
       <c r="E1289" t="inlineStr">
         <is>
-          <t>60.7</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="F1289" t="inlineStr"/>
@@ -41638,7 +41470,7 @@
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr">
@@ -41648,81 +41480,77 @@
       </c>
       <c r="C1290" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1290" t="inlineStr"/>
-      <c r="E1290" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
+      <c r="E1290" t="inlineStr"/>
       <c r="F1290" t="inlineStr"/>
       <c r="G1290" t="inlineStr"/>
       <c r="H1290" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1291" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1291" t="inlineStr"/>
       <c r="E1291" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1291" t="inlineStr"/>
-      <c r="G1291" t="inlineStr"/>
+      <c r="G1291" t="inlineStr">
+        <is>
+          <t>56.2</t>
+        </is>
+      </c>
       <c r="H1291" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1292" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1292" t="inlineStr"/>
       <c r="E1292" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1292" t="inlineStr"/>
-      <c r="G1292" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1292" t="inlineStr"/>
       <c r="H1292" t="inlineStr">
         <is>
           <t>3</t>
@@ -41732,31 +41560,27 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1293" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1293" t="inlineStr"/>
       <c r="E1293" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1293" t="inlineStr"/>
-      <c r="G1293" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
+      <c r="G1293" t="inlineStr"/>
       <c r="H1293" t="inlineStr">
         <is>
           <t>3</t>
@@ -41766,61 +41590,65 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1294" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1294" t="inlineStr"/>
       <c r="E1294" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1294" t="inlineStr"/>
       <c r="G1294" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H1294" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1295" t="inlineStr"/>
       <c r="E1295" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1295" t="inlineStr"/>
-      <c r="G1295" t="inlineStr"/>
+      <c r="G1295" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1295" t="inlineStr">
         <is>
           <t>2</t>
@@ -41830,103 +41658,115 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1296" t="inlineStr"/>
       <c r="E1296" t="inlineStr"/>
       <c r="F1296" t="inlineStr"/>
-      <c r="G1296" t="inlineStr"/>
+      <c r="G1296" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1296" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1297" t="inlineStr"/>
       <c r="E1297" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="F1297" t="inlineStr"/>
       <c r="G1297" t="inlineStr"/>
       <c r="H1297" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1298" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1298" t="inlineStr"/>
-      <c r="E1298" t="inlineStr"/>
+      <c r="E1298" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F1298" t="inlineStr"/>
       <c r="G1298" t="inlineStr"/>
       <c r="H1298" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1299" t="inlineStr"/>
-      <c r="E1299" t="inlineStr"/>
+      <c r="E1299" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="F1299" t="inlineStr"/>
       <c r="G1299" t="inlineStr"/>
       <c r="H1299" t="inlineStr">
@@ -41938,55 +41778,47 @@
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1300" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1300" t="inlineStr"/>
-      <c r="E1300" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+      <c r="E1300" t="inlineStr"/>
       <c r="F1300" t="inlineStr"/>
       <c r="G1300" t="inlineStr"/>
       <c r="H1300" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1301" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1301" t="inlineStr"/>
-      <c r="E1301" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="E1301" t="inlineStr"/>
       <c r="F1301" t="inlineStr"/>
       <c r="G1301" t="inlineStr"/>
       <c r="H1301" t="inlineStr">
@@ -41998,25 +41830,33 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1302" t="inlineStr"/>
-      <c r="E1302" t="inlineStr"/>
-      <c r="F1302" t="inlineStr"/>
+      <c r="E1302" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F1302" t="inlineStr">
+        <is>
+          <t>73.2</t>
+        </is>
+      </c>
       <c r="G1302" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1302" t="inlineStr">
@@ -42028,117 +41868,145 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1303" t="inlineStr"/>
       <c r="E1303" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F1303" t="inlineStr"/>
-      <c r="G1303" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1303" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G1303" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="H1303" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1304" t="inlineStr"/>
       <c r="E1304" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1304" t="inlineStr"/>
-      <c r="G1304" t="inlineStr"/>
+      <c r="G1304" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
       <c r="H1304" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1305" t="inlineStr"/>
       <c r="E1305" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1305" t="inlineStr"/>
-      <c r="G1305" t="inlineStr"/>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="F1305" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
+      <c r="G1305" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
       <c r="H1305" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1306" t="inlineStr"/>
       <c r="E1306" t="inlineStr">
         <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F1306" t="inlineStr"/>
-      <c r="G1306" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1306" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G1306" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="H1306" t="inlineStr">
         <is>
           <t>3</t>
@@ -42148,23 +42016,23 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1307" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1307" t="inlineStr"/>
       <c r="E1307" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="F1307" t="inlineStr"/>
@@ -42178,754 +42046,80 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1308" t="inlineStr">
         <is>
-          <t>CBI Business Optimism IndexQ1</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1308" t="inlineStr"/>
       <c r="E1308" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1308" t="inlineStr"/>
-      <c r="G1308" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="G1308" t="inlineStr"/>
       <c r="H1308" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1309" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1309" t="inlineStr"/>
-      <c r="E1309" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
+      <c r="E1309" t="inlineStr"/>
       <c r="F1309" t="inlineStr"/>
-      <c r="G1309" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
+      <c r="G1309" t="inlineStr"/>
       <c r="H1309" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr">
         <is>
-          <t>CBI Industrial Trends OrdersJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1310" t="inlineStr"/>
-      <c r="E1310" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
+      <c r="E1310" t="inlineStr"/>
       <c r="F1310" t="inlineStr"/>
       <c r="G1310" t="inlineStr"/>
       <c r="H1310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1311">
-      <c r="A1311" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1311" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1311" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
-      <c r="D1311" t="inlineStr"/>
-      <c r="E1311" t="inlineStr"/>
-      <c r="F1311" t="inlineStr"/>
-      <c r="G1311" t="inlineStr"/>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1312">
-      <c r="A1312" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1312" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1312" t="inlineStr">
-        <is>
-          <t>CFIB Business BarometerJAN</t>
-        </is>
-      </c>
-      <c r="D1312" t="inlineStr"/>
-      <c r="E1312" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F1312" t="inlineStr"/>
-      <c r="G1312" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1313">
-      <c r="A1313" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1313" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1313" t="inlineStr">
-        <is>
-          <t>Economic Activity MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1313" t="inlineStr"/>
-      <c r="E1313" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1313" t="inlineStr"/>
-      <c r="G1313" t="inlineStr"/>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1314">
-      <c r="A1314" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1314" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1314" t="inlineStr">
-        <is>
-          <t>Economic Activity YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1314" t="inlineStr"/>
-      <c r="E1314" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F1314" t="inlineStr"/>
-      <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1315">
-      <c r="A1315" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1315" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1315" t="inlineStr">
-        <is>
-          <t>New Housing Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1315" t="inlineStr"/>
-      <c r="E1315" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1315" t="inlineStr"/>
-      <c r="G1315" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1316">
-      <c r="A1316" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1316" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1316" t="inlineStr">
-        <is>
-          <t>New Housing Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1316" t="inlineStr"/>
-      <c r="E1316" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1316" t="inlineStr"/>
-      <c r="G1316" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1317">
-      <c r="A1317" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1317" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1317" t="inlineStr">
-        <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D1317" t="inlineStr"/>
-      <c r="E1317" t="inlineStr"/>
-      <c r="F1317" t="inlineStr"/>
-      <c r="G1317" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1318">
-      <c r="A1318" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1318" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1318" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1318" t="inlineStr"/>
-      <c r="E1318" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F1318" t="inlineStr"/>
-      <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1319">
-      <c r="A1319" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1319" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1319" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1319" t="inlineStr"/>
-      <c r="E1319" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F1319" t="inlineStr"/>
-      <c r="G1319" t="inlineStr"/>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1320">
-      <c r="A1320" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1320" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1320" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1320" t="inlineStr"/>
-      <c r="E1320" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F1320" t="inlineStr"/>
-      <c r="G1320" t="inlineStr"/>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1321">
-      <c r="A1321" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1321" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1321" t="inlineStr">
-        <is>
-          <t>Existing Home SalesDEC</t>
-        </is>
-      </c>
-      <c r="D1321" t="inlineStr"/>
-      <c r="E1321" t="inlineStr"/>
-      <c r="F1321" t="inlineStr"/>
-      <c r="G1321" t="inlineStr"/>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1322">
-      <c r="A1322" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1322" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1322" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1322" t="inlineStr"/>
-      <c r="E1322" t="inlineStr"/>
-      <c r="F1322" t="inlineStr"/>
-      <c r="G1322" t="inlineStr"/>
-      <c r="H1322" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1323">
-      <c r="A1323" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1323" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1323" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1323" t="inlineStr"/>
-      <c r="E1323" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1323" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="G1323" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1324">
-      <c r="A1324" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1324" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1324" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1324" t="inlineStr"/>
-      <c r="E1324" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1324" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1324" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1325" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1325" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1325" t="inlineStr"/>
-      <c r="E1325" t="inlineStr">
-        <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1325" t="inlineStr"/>
-      <c r="G1325" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1326" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1326" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1326" t="inlineStr"/>
-      <c r="E1326" t="inlineStr">
-        <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1326" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1326" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1327">
-      <c r="A1327" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1327" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1327" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1327" t="inlineStr"/>
-      <c r="E1327" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1327" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1327" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1328" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1328" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1328" t="inlineStr"/>
-      <c r="E1328" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F1328" t="inlineStr"/>
-      <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1329" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1329" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1329" t="inlineStr"/>
-      <c r="E1329" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F1329" t="inlineStr"/>
-      <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1330" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1330" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
-        </is>
-      </c>
-      <c r="D1330" t="inlineStr"/>
-      <c r="E1330" t="inlineStr"/>
-      <c r="F1330" t="inlineStr"/>
-      <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1331">
-      <c r="A1331" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1331" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1331" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
-        </is>
-      </c>
-      <c r="D1331" t="inlineStr"/>
-      <c r="E1331" t="inlineStr"/>
-      <c r="F1331" t="inlineStr"/>
-      <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-24.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1330"/>
+  <dimension ref="A1:H1316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33833,10 +33833,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1026">
@@ -33871,10 +33869,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1027">
@@ -33909,10 +33905,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1028">
@@ -33947,10 +33941,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1029">
@@ -33973,10 +33965,8 @@
       <c r="E1029" t="inlineStr"/>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1030">
@@ -34003,10 +33993,8 @@
       </c>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1031">
@@ -34029,10 +34017,8 @@
       <c r="E1031" t="inlineStr"/>
       <c r="F1031" t="inlineStr"/>
       <c r="G1031" t="inlineStr"/>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1032">
@@ -34059,10 +34045,8 @@
       </c>
       <c r="F1032" t="inlineStr"/>
       <c r="G1032" t="inlineStr"/>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -34097,10 +34081,8 @@
           <t>€7.8B</t>
         </is>
       </c>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -34127,10 +34109,8 @@
       </c>
       <c r="F1034" t="inlineStr"/>
       <c r="G1034" t="inlineStr"/>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1035">
@@ -34165,10 +34145,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1036">
@@ -34191,10 +34169,8 @@
       <c r="E1036" t="inlineStr"/>
       <c r="F1036" t="inlineStr"/>
       <c r="G1036" t="inlineStr"/>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -34225,10 +34201,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1038">
@@ -34263,10 +34237,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1039">
@@ -34301,10 +34273,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1040">
@@ -34339,10 +34309,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1041">
@@ -34377,10 +34345,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1042">
@@ -34415,10 +34381,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -34453,10 +34417,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1044">
@@ -34491,10 +34453,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1045">
@@ -34529,10 +34489,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1046">
@@ -34563,10 +34521,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34597,10 +34553,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34631,10 +34585,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34661,10 +34613,8 @@
       </c>
       <c r="F1049" t="inlineStr"/>
       <c r="G1049" t="inlineStr"/>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34691,10 +34641,8 @@
       </c>
       <c r="F1050" t="inlineStr"/>
       <c r="G1050" t="inlineStr"/>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34721,10 +34669,8 @@
       </c>
       <c r="F1051" t="inlineStr"/>
       <c r="G1051" t="inlineStr"/>
-      <c r="H1051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -34751,10 +34697,8 @@
       </c>
       <c r="F1052" t="inlineStr"/>
       <c r="G1052" t="inlineStr"/>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34781,10 +34725,8 @@
       </c>
       <c r="F1053" t="inlineStr"/>
       <c r="G1053" t="inlineStr"/>
-      <c r="H1053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1053" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1054">
@@ -34815,10 +34757,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -34849,10 +34789,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1056">
@@ -34887,10 +34825,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1056" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1057">
@@ -34925,10 +34861,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1058">
@@ -34963,10 +34897,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -34997,10 +34929,8 @@
         </is>
       </c>
       <c r="G1059" t="inlineStr"/>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1060">
@@ -35027,10 +34957,8 @@
       </c>
       <c r="F1060" t="inlineStr"/>
       <c r="G1060" t="inlineStr"/>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -35057,10 +34985,8 @@
       </c>
       <c r="F1061" t="inlineStr"/>
       <c r="G1061" t="inlineStr"/>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1062">
@@ -35087,10 +35013,8 @@
       </c>
       <c r="F1062" t="inlineStr"/>
       <c r="G1062" t="inlineStr"/>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1063">
@@ -35117,10 +35041,8 @@
       </c>
       <c r="F1063" t="inlineStr"/>
       <c r="G1063" t="inlineStr"/>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1064">
@@ -35143,10 +35065,8 @@
       <c r="E1064" t="inlineStr"/>
       <c r="F1064" t="inlineStr"/>
       <c r="G1064" t="inlineStr"/>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -35173,10 +35093,8 @@
       </c>
       <c r="F1065" t="inlineStr"/>
       <c r="G1065" t="inlineStr"/>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1066">
@@ -35203,10 +35121,8 @@
       </c>
       <c r="F1066" t="inlineStr"/>
       <c r="G1066" t="inlineStr"/>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1067">
@@ -35233,10 +35149,8 @@
       </c>
       <c r="F1067" t="inlineStr"/>
       <c r="G1067" t="inlineStr"/>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1068">
@@ -35267,10 +35181,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1069">
@@ -35305,10 +35217,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -35339,10 +35249,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1071">
@@ -35373,10 +35281,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -35411,10 +35317,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1073">
@@ -35449,10 +35353,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1074">
@@ -35487,10 +35389,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1075">
@@ -35525,10 +35425,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1076">
@@ -35563,10 +35461,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1077">
@@ -35597,10 +35493,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -35635,10 +35529,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35665,134 +35557,120 @@
       </c>
       <c r="F1079" t="inlineStr"/>
       <c r="G1079" t="inlineStr"/>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1080" t="inlineStr"/>
-      <c r="C1080" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>ECB Cipollone Speech</t>
+        </is>
+      </c>
       <c r="D1080" t="inlineStr"/>
       <c r="E1080" t="inlineStr"/>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr"/>
+      <c r="H1080" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1081" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D1081" t="inlineStr"/>
       <c r="E1081" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1081" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1081" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F1081" t="inlineStr"/>
+      <c r="G1081" t="inlineStr"/>
       <c r="H1081" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D1082" t="inlineStr"/>
       <c r="E1082" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1082" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G1082" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F1082" t="inlineStr"/>
+      <c r="G1082" t="inlineStr"/>
       <c r="H1082" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D1083" t="inlineStr"/>
       <c r="E1083" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1083" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1083" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F1083" t="inlineStr"/>
+      <c r="G1083" t="inlineStr"/>
       <c r="H1083" t="inlineStr">
         <is>
           <t>3</t>
@@ -35802,35 +35680,27 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1084" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D1084" t="inlineStr"/>
       <c r="E1084" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1084" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G1084" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F1084" t="inlineStr"/>
+      <c r="G1084" t="inlineStr"/>
       <c r="H1084" t="inlineStr">
         <is>
           <t>3</t>
@@ -35840,31 +35710,27 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D1085" t="inlineStr"/>
       <c r="E1085" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F1085" t="inlineStr"/>
-      <c r="G1085" t="inlineStr">
-        <is>
-          <t>€33.0B</t>
-        </is>
-      </c>
+      <c r="G1085" t="inlineStr"/>
       <c r="H1085" t="inlineStr">
         <is>
           <t>3</t>
@@ -35874,101 +35740,105 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D1086" t="inlineStr"/>
       <c r="E1086" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1086" t="inlineStr">
         <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1086" t="inlineStr"/>
+          <t>1.46M</t>
+        </is>
+      </c>
+      <c r="G1086" t="inlineStr">
+        <is>
+          <t>1.48M</t>
+        </is>
+      </c>
       <c r="H1086" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1087" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D1087" t="inlineStr"/>
       <c r="E1087" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
-        </is>
-      </c>
-      <c r="F1087" t="inlineStr"/>
+          <t>1.289M</t>
+        </is>
+      </c>
+      <c r="F1087" t="inlineStr">
+        <is>
+          <t>1.32M</t>
+        </is>
+      </c>
       <c r="G1087" t="inlineStr">
         <is>
-          <t>€-4.2B</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H1087" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1088" t="inlineStr"/>
       <c r="E1088" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1088" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1088" t="inlineStr"/>
       <c r="G1088" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="H1088" t="inlineStr">
@@ -35980,137 +35850,133 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1089" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1089" t="inlineStr"/>
       <c r="E1089" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1089" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1089" t="inlineStr"/>
       <c r="G1089" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IF</t>
         </is>
       </c>
       <c r="C1090" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>IMF/World Economic Outlook</t>
         </is>
       </c>
       <c r="D1090" t="inlineStr"/>
-      <c r="E1090" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1090" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1090" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+      <c r="E1090" t="inlineStr"/>
+      <c r="F1090" t="inlineStr"/>
+      <c r="G1090" t="inlineStr"/>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1091" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1091" t="inlineStr"/>
       <c r="E1091" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1091" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1091" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1091" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1092" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1092" t="inlineStr"/>
-      <c r="E1092" t="inlineStr"/>
-      <c r="F1092" t="inlineStr"/>
-      <c r="G1092" t="inlineStr"/>
+      <c r="E1092" t="inlineStr">
+        <is>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1092" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="G1092" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
       <c r="H1092" t="inlineStr">
         <is>
           <t>3</t>
@@ -36120,29 +35986,29 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1093" t="inlineStr"/>
       <c r="E1093" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1093" t="inlineStr"/>
       <c r="G1093" t="inlineStr">
         <is>
-          <t>€2900.0M</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1093" t="inlineStr">
@@ -36154,23 +36020,35 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1094" t="inlineStr"/>
-      <c r="E1094" t="inlineStr"/>
-      <c r="F1094" t="inlineStr"/>
-      <c r="G1094" t="inlineStr"/>
+      <c r="E1094" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F1094" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1094" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1094" t="inlineStr">
         <is>
           <t>3</t>
@@ -36180,27 +36058,31 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1095" t="inlineStr"/>
       <c r="E1095" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F1095" t="inlineStr"/>
-      <c r="G1095" t="inlineStr"/>
+      <c r="G1095" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1095" t="inlineStr">
         <is>
           <t>3</t>
@@ -36210,23 +36092,23 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1096" t="inlineStr"/>
       <c r="E1096" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F1096" t="inlineStr"/>
@@ -36240,23 +36122,23 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1097" t="inlineStr"/>
       <c r="E1097" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>584</t>
         </is>
       </c>
       <c r="F1097" t="inlineStr"/>
@@ -36270,53 +36152,53 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1098" t="inlineStr"/>
       <c r="E1098" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr"/>
       <c r="H1098" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1099" t="inlineStr"/>
       <c r="E1099" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>$92.1B</t>
         </is>
       </c>
       <c r="F1099" t="inlineStr"/>
@@ -36330,7 +36212,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr">
@@ -36340,129 +36222,89 @@
       </c>
       <c r="C1100" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1100" t="inlineStr"/>
       <c r="E1100" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1100" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
-      <c r="G1100" t="inlineStr">
-        <is>
-          <t>1.48M</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F1100" t="inlineStr"/>
+      <c r="G1100" t="inlineStr"/>
       <c r="H1100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1101">
-      <c r="A1101" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1101" t="inlineStr"/>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1101" t="inlineStr"/>
       <c r="E1101" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1101" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
-      <c r="G1101" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F1101" t="inlineStr"/>
+      <c r="G1101" t="inlineStr"/>
       <c r="H1101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1102" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1102" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr"/>
+      <c r="C1102" t="inlineStr"/>
       <c r="D1102" t="inlineStr"/>
-      <c r="E1102" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1102" t="inlineStr"/>
       <c r="F1102" t="inlineStr"/>
-      <c r="G1102" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1102" t="inlineStr"/>
+      <c r="H1102" t="inlineStr"/>
     </row>
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1103" t="inlineStr"/>
       <c r="E1103" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F1103" t="inlineStr"/>
       <c r="G1103" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1103" t="inlineStr">
@@ -36474,23 +36316,31 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>IF</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr">
         <is>
-          <t>IMF/World Economic Outlook</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1104" t="inlineStr"/>
-      <c r="E1104" t="inlineStr"/>
+      <c r="E1104" t="inlineStr">
+        <is>
+          <t>5.6%</t>
+        </is>
+      </c>
       <c r="F1104" t="inlineStr"/>
-      <c r="G1104" t="inlineStr"/>
+      <c r="G1104" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1104" t="inlineStr">
         <is>
           <t>2</t>
@@ -36500,35 +36350,27 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1105" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1105" t="inlineStr"/>
       <c r="E1105" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1105" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1105" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="F1105" t="inlineStr"/>
+      <c r="G1105" t="inlineStr"/>
       <c r="H1105" t="inlineStr">
         <is>
           <t>2</t>
@@ -36538,69 +36380,57 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1106" t="inlineStr"/>
       <c r="E1106" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1106" t="inlineStr">
-        <is>
-          <t>77%</t>
-        </is>
-      </c>
-      <c r="G1106" t="inlineStr">
-        <is>
-          <t>76.9%</t>
-        </is>
-      </c>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="F1106" t="inlineStr"/>
+      <c r="G1106" t="inlineStr"/>
       <c r="H1106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1107" t="inlineStr"/>
       <c r="E1107" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1107" t="inlineStr"/>
-      <c r="G1107" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G1107" t="inlineStr"/>
       <c r="H1107" t="inlineStr">
         <is>
           <t>3</t>
@@ -36610,33 +36440,33 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1108" t="inlineStr"/>
       <c r="E1108" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1108" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G1108" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H1108" t="inlineStr">
@@ -36648,29 +36478,29 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1109" t="inlineStr"/>
       <c r="E1109" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1109" t="inlineStr">
@@ -36682,23 +36512,23 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1110" t="inlineStr"/>
       <c r="E1110" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1110" t="inlineStr"/>
@@ -36710,27 +36540,19 @@
       </c>
     </row>
     <row r="1111">
-      <c r="A1111" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
+      <c r="A1111" t="inlineStr"/>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1111" t="inlineStr"/>
-      <c r="E1111" t="inlineStr">
-        <is>
-          <t>584</t>
-        </is>
-      </c>
+      <c r="E1111" t="inlineStr"/>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
       <c r="H1111" t="inlineStr">
@@ -36742,87 +36564,79 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1112" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1112" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr"/>
+      <c r="C1112" t="inlineStr"/>
       <c r="D1112" t="inlineStr"/>
-      <c r="E1112" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E1112" t="inlineStr"/>
       <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H1112" t="inlineStr"/>
     </row>
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1113" t="inlineStr"/>
       <c r="E1113" t="inlineStr">
         <is>
-          <t>$92.1B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1113" t="inlineStr"/>
-      <c r="G1113" t="inlineStr"/>
+      <c r="G1113" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1114" t="inlineStr"/>
       <c r="E1114" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1114" t="inlineStr"/>
-      <c r="G1114" t="inlineStr"/>
+      <c r="G1114" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="H1114" t="inlineStr">
         <is>
           <t>3</t>
@@ -36830,25 +36644,33 @@
       </c>
     </row>
     <row r="1115">
-      <c r="A1115" t="inlineStr"/>
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>04:15 AM</t>
+        </is>
+      </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1115" t="inlineStr"/>
       <c r="E1115" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1115" t="inlineStr"/>
-      <c r="G1115" t="inlineStr"/>
+      <c r="G1115" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="H1115" t="inlineStr">
         <is>
           <t>3</t>
@@ -36858,165 +36680,169 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1116" t="inlineStr"/>
-      <c r="C1116" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>Construction Output YoYNOV</t>
+        </is>
+      </c>
       <c r="D1116" t="inlineStr"/>
-      <c r="E1116" t="inlineStr"/>
+      <c r="E1116" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr"/>
+      <c r="H1116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1117" t="inlineStr"/>
-      <c r="E1117" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E1117" t="inlineStr"/>
       <c r="F1117" t="inlineStr"/>
-      <c r="G1117" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1117" t="inlineStr"/>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1118" t="inlineStr"/>
-      <c r="E1118" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
+      <c r="E1118" t="inlineStr"/>
       <c r="F1118" t="inlineStr"/>
-      <c r="G1118" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G1118" t="inlineStr"/>
       <c r="H1118" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1119" t="inlineStr"/>
       <c r="E1119" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1119" t="inlineStr"/>
       <c r="G1119" t="inlineStr"/>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1120" t="inlineStr"/>
       <c r="E1120" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1120" t="inlineStr"/>
-      <c r="G1120" t="inlineStr"/>
+      <c r="G1120" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1121" t="inlineStr"/>
       <c r="E1121" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.489%</t>
         </is>
       </c>
       <c r="F1121" t="inlineStr"/>
@@ -37030,35 +36856,27 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1122" t="inlineStr"/>
       <c r="E1122" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1122" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1122" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.691%</t>
+        </is>
+      </c>
+      <c r="F1122" t="inlineStr"/>
+      <c r="G1122" t="inlineStr"/>
       <c r="H1122" t="inlineStr">
         <is>
           <t>3</t>
@@ -37068,31 +36886,27 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1123" t="inlineStr"/>
       <c r="E1123" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.593%</t>
         </is>
       </c>
       <c r="F1123" t="inlineStr"/>
-      <c r="G1123" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1123" t="inlineStr"/>
       <c r="H1123" t="inlineStr">
         <is>
           <t>3</t>
@@ -37102,49 +36916,57 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D1124" t="inlineStr"/>
-      <c r="E1124" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E1124" t="inlineStr"/>
       <c r="F1124" t="inlineStr"/>
       <c r="G1124" t="inlineStr"/>
       <c r="H1124" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1125">
-      <c r="A1125" t="inlineStr"/>
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1125" t="inlineStr"/>
-      <c r="E1125" t="inlineStr"/>
+      <c r="E1125" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1125" t="inlineStr"/>
-      <c r="G1125" t="inlineStr"/>
+      <c r="G1125" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1125" t="inlineStr">
         <is>
           <t>3</t>
@@ -37154,77 +36976,93 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1126" t="inlineStr"/>
-      <c r="C1126" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D1126" t="inlineStr"/>
-      <c r="E1126" t="inlineStr"/>
+      <c r="E1126" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F1126" t="inlineStr"/>
-      <c r="G1126" t="inlineStr"/>
-      <c r="H1126" t="inlineStr"/>
+      <c r="G1126" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H1126" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1127" t="inlineStr"/>
       <c r="E1127" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1127" t="inlineStr"/>
       <c r="G1127" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$ 1463M</t>
         </is>
       </c>
       <c r="H1127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr"/>
-      <c r="E1128" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1128" t="inlineStr"/>
       <c r="F1128" t="inlineStr"/>
       <c r="G1128" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1128" t="inlineStr">
@@ -37236,29 +37074,29 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1129" t="inlineStr"/>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr">
@@ -37270,23 +37108,23 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F1130" t="inlineStr"/>
@@ -37298,23 +37136,23 @@
       </c>
     </row>
     <row r="1131">
-      <c r="A1131" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A1131" t="inlineStr"/>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
-      <c r="E1131" t="inlineStr"/>
+      <c r="E1131" t="inlineStr">
+        <is>
+          <t>2.665%</t>
+        </is>
+      </c>
       <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr"/>
       <c r="H1131" t="inlineStr">
@@ -37324,23 +37162,23 @@
       </c>
     </row>
     <row r="1132">
-      <c r="A1132" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A1132" t="inlineStr"/>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
-      <c r="E1132" t="inlineStr"/>
+      <c r="E1132" t="inlineStr">
+        <is>
+          <t>-27.9%</t>
+        </is>
+      </c>
       <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr"/>
       <c r="H1132" t="inlineStr">
@@ -37350,29 +37188,29 @@
       </c>
     </row>
     <row r="1133">
-      <c r="A1133" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1133" t="inlineStr"/>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="F1133" t="inlineStr"/>
-      <c r="G1133" t="inlineStr"/>
+      <c r="G1133" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="H1133" t="inlineStr">
         <is>
           <t>3</t>
@@ -37380,33 +37218,21 @@
       </c>
     </row>
     <row r="1134">
-      <c r="A1134" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1134" t="inlineStr"/>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>BCB Focus Market Readout</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
-      <c r="E1134" t="inlineStr">
-        <is>
-          <t>$9.1B</t>
-        </is>
-      </c>
+      <c r="E1134" t="inlineStr"/>
       <c r="F1134" t="inlineStr"/>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>$ 10B</t>
-        </is>
-      </c>
+      <c r="G1134" t="inlineStr"/>
       <c r="H1134" t="inlineStr">
         <is>
           <t>3</t>
@@ -37414,29 +37240,29 @@
       </c>
     </row>
     <row r="1135">
-      <c r="A1135" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A1135" t="inlineStr"/>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>2.489%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F1135" t="inlineStr"/>
-      <c r="G1135" t="inlineStr"/>
+      <c r="G1135" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H1135" t="inlineStr">
         <is>
           <t>3</t>
@@ -37444,29 +37270,29 @@
       </c>
     </row>
     <row r="1136">
-      <c r="A1136" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A1136" t="inlineStr"/>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>2.691%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1136" t="inlineStr"/>
-      <c r="G1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr">
+        <is>
+          <t>TRY 9.0T</t>
+        </is>
+      </c>
       <c r="H1136" t="inlineStr">
         <is>
           <t>3</t>
@@ -37474,27 +37300,19 @@
       </c>
     </row>
     <row r="1137">
-      <c r="A1137" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A1137" t="inlineStr"/>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
-      <c r="E1137" t="inlineStr">
-        <is>
-          <t>2.593%</t>
-        </is>
-      </c>
+      <c r="E1137" t="inlineStr"/>
       <c r="F1137" t="inlineStr"/>
       <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
@@ -37506,57 +37324,41 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1138" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1138" t="inlineStr">
-        <is>
-          <t>BoC Business Outlook Survey</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr"/>
+      <c r="C1138" t="inlineStr"/>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr"/>
       <c r="F1138" t="inlineStr"/>
       <c r="G1138" t="inlineStr"/>
-      <c r="H1138" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H1138" t="inlineStr"/>
     </row>
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>3.18%</t>
         </is>
       </c>
       <c r="F1139" t="inlineStr"/>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1139" t="inlineStr"/>
       <c r="H1139" t="inlineStr">
         <is>
           <t>3</t>
@@ -37566,31 +37368,27 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1140" t="inlineStr"/>
       <c r="H1140" t="inlineStr">
         <is>
           <t>3</t>
@@ -37600,151 +37398,159 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1141" t="inlineStr"/>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
-      <c r="E1142" t="inlineStr"/>
+      <c r="E1142" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="F1142" t="inlineStr"/>
       <c r="G1142" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>173K</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr"/>
       <c r="G1144" t="inlineStr"/>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1145">
-      <c r="A1145" t="inlineStr"/>
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr"/>
+      <c r="G1145" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1145" t="inlineStr">
         <is>
           <t>3</t>
@@ -37752,25 +37558,33 @@
       </c>
     </row>
     <row r="1146">
-      <c r="A1146" t="inlineStr"/>
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>0.3K</t>
         </is>
       </c>
       <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr"/>
+      <c r="G1146" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1146" t="inlineStr">
         <is>
           <t>3</t>
@@ -37778,27 +37592,31 @@
       </c>
     </row>
     <row r="1147">
-      <c r="A1147" t="inlineStr"/>
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>-35K</t>
         </is>
       </c>
       <c r="F1147" t="inlineStr"/>
       <c r="G1147" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20K</t>
         </is>
       </c>
       <c r="H1147" t="inlineStr">
@@ -37808,19 +37626,27 @@
       </c>
     </row>
     <row r="1148">
-      <c r="A1148" t="inlineStr"/>
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>04:30 AM</t>
+        </is>
+      </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>BCB Focus Market Readout</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
-      <c r="E1148" t="inlineStr"/>
+      <c r="E1148" t="inlineStr">
+        <is>
+          <t>-3.4%</t>
+        </is>
+      </c>
       <c r="F1148" t="inlineStr"/>
       <c r="G1148" t="inlineStr"/>
       <c r="H1148" t="inlineStr">
@@ -37830,29 +37656,29 @@
       </c>
     </row>
     <row r="1149">
-      <c r="A1149" t="inlineStr"/>
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>04:30 AM</t>
+        </is>
+      </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr"/>
       <c r="E1149" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G1149" t="inlineStr"/>
       <c r="H1149" t="inlineStr">
         <is>
           <t>3</t>
@@ -37860,29 +37686,29 @@
       </c>
     </row>
     <row r="1150">
-      <c r="A1150" t="inlineStr"/>
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>04:30 AM</t>
+        </is>
+      </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G1150" t="inlineStr"/>
       <c r="H1150" t="inlineStr">
         <is>
           <t>3</t>
@@ -37890,7 +37716,11 @@
       </c>
     </row>
     <row r="1151">
-      <c r="A1151" t="inlineStr"/>
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>05:00 AM</t>
+        </is>
+      </c>
       <c r="B1151" t="inlineStr">
         <is>
           <t>EA</t>
@@ -37898,53 +37728,73 @@
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
-      <c r="E1151" t="inlineStr"/>
+      <c r="E1151" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr"/>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1152" t="inlineStr"/>
-      <c r="C1152" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>ZEW Economic Sentiment IndexJAN</t>
+        </is>
+      </c>
       <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr"/>
+      <c r="E1152" t="inlineStr">
+        <is>
+          <t>15.7</t>
+        </is>
+      </c>
       <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr"/>
-      <c r="H1152" t="inlineStr"/>
+      <c r="H1152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>3.18%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1153" t="inlineStr"/>
@@ -37958,25 +37808,21 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="E1154" t="inlineStr"/>
       <c r="F1154" t="inlineStr"/>
       <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
@@ -37988,125 +37834,125 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>-1.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr"/>
       <c r="H1155" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F1156" t="inlineStr"/>
-      <c r="G1156" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1156" t="inlineStr"/>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
       <c r="G1157" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>173K</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr"/>
+      <c r="G1158" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H1158" t="inlineStr">
         <is>
           <t>2</t>
@@ -38116,63 +37962,59 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
       <c r="E1159" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1160" t="inlineStr"/>
       <c r="F1160" t="inlineStr"/>
       <c r="G1160" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1160" t="inlineStr">
@@ -38184,29 +38026,29 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1161" t="inlineStr">
@@ -38218,27 +38060,31 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr"/>
+      <c r="G1162" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1162" t="inlineStr">
         <is>
           <t>3</t>
@@ -38248,23 +38094,23 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
@@ -38278,23 +38124,23 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
@@ -38308,143 +38154,139 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4.070%</t>
         </is>
       </c>
       <c r="F1165" t="inlineStr"/>
       <c r="G1165" t="inlineStr"/>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>4.180%</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr"/>
       <c r="G1166" t="inlineStr"/>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1168" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1168" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr"/>
+      <c r="C1168" t="inlineStr"/>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr"/>
       <c r="F1168" t="inlineStr"/>
       <c r="G1168" t="inlineStr"/>
-      <c r="H1168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1168" t="inlineStr"/>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr"/>
+      <c r="G1169" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H1169" t="inlineStr">
         <is>
           <t>3</t>
@@ -38454,42 +38296,46 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr"/>
+      <c r="G1170" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1170" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
@@ -38500,113 +38346,109 @@
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1171" t="inlineStr"/>
       <c r="G1171" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H1171" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
       <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1174" t="inlineStr"/>
       <c r="H1174" t="inlineStr">
         <is>
           <t>3</t>
@@ -38616,29 +38458,29 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1175" t="inlineStr"/>
       <c r="E1175" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1175" t="inlineStr"/>
       <c r="G1175" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1175" t="inlineStr">
@@ -38650,31 +38492,27 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
       <c r="E1176" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1176" t="inlineStr"/>
       <c r="H1176" t="inlineStr">
         <is>
           <t>3</t>
@@ -38684,25 +38522,21 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+      <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
       <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
@@ -38714,25 +38548,21 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
+      <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
       <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
@@ -38744,23 +38574,23 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>4.070%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1179" t="inlineStr"/>
@@ -38774,7 +38604,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
@@ -38784,99 +38614,107 @@
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>4.180%</t>
+          <t>7.09%</t>
         </is>
       </c>
       <c r="F1180" t="inlineStr"/>
       <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
       <c r="E1181" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr"/>
-      <c r="C1182" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexJAN/17</t>
+        </is>
+      </c>
       <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>224.4</t>
+        </is>
+      </c>
       <c r="F1182" t="inlineStr"/>
       <c r="G1182" t="inlineStr"/>
-      <c r="H1182" t="inlineStr"/>
+      <c r="H1182" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
       <c r="E1183" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>575.6</t>
         </is>
       </c>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
+      <c r="G1183" t="inlineStr"/>
       <c r="H1183" t="inlineStr">
         <is>
           <t>3</t>
@@ -38886,97 +38724,93 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
       <c r="E1184" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>162</t>
         </is>
       </c>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1184" t="inlineStr"/>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
       <c r="G1185" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1185" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
       <c r="G1186" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1186" t="inlineStr">
@@ -38988,29 +38822,29 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F1187" t="inlineStr"/>
       <c r="G1187" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1187" t="inlineStr">
@@ -39022,21 +38856,25 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
+      <c r="E1188" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1188" t="inlineStr"/>
       <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
@@ -39048,31 +38886,23 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
-      <c r="E1189" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E1189" t="inlineStr"/>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1189" t="inlineStr"/>
       <c r="H1189" t="inlineStr">
         <is>
           <t>3</t>
@@ -39082,23 +38912,23 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>4.686%</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr"/>
@@ -39112,23 +38942,31 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>127.1%</t>
+        </is>
+      </c>
       <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr"/>
+      <c r="G1191" t="inlineStr">
+        <is>
+          <t>115.0%</t>
+        </is>
+      </c>
       <c r="H1191" t="inlineStr">
         <is>
           <t>3</t>
@@ -39138,83 +38976,91 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr"/>
       <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr"/>
+      <c r="G1192" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>-2.6M</t>
         </is>
       </c>
       <c r="F1193" t="inlineStr"/>
       <c r="G1193" t="inlineStr"/>
       <c r="H1193" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>7.09%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1194" t="inlineStr"/>
-      <c r="G1194" t="inlineStr"/>
+      <c r="G1194" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1194" t="inlineStr">
         <is>
           <t>2</t>
@@ -39224,27 +39070,31 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr"/>
+      <c r="G1195" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="H1195" t="inlineStr">
         <is>
           <t>3</t>
@@ -39254,85 +39104,85 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
       <c r="E1196" t="inlineStr">
         <is>
-          <t>224.4</t>
+          <t>¥-117.6B</t>
         </is>
       </c>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
+      <c r="G1196" t="inlineStr">
+        <is>
+          <t>¥ 100B</t>
+        </is>
+      </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
       <c r="E1197" t="inlineStr">
         <is>
-          <t>575.6</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1197" t="inlineStr"/>
       <c r="G1197" t="inlineStr"/>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
+      <c r="E1198" t="inlineStr"/>
       <c r="F1198" t="inlineStr"/>
       <c r="G1198" t="inlineStr"/>
       <c r="H1198" t="inlineStr">
@@ -39344,31 +39194,27 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
       <c r="E1199" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>-3.8%</t>
         </is>
       </c>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1199" t="inlineStr"/>
       <c r="H1199" t="inlineStr">
         <is>
           <t>3</t>
@@ -39378,31 +39224,23 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="E1200" t="inlineStr"/>
       <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1200" t="inlineStr"/>
       <c r="H1200" t="inlineStr">
         <is>
           <t>3</t>
@@ -39412,57 +39250,57 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
       <c r="E1201" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1201" t="inlineStr"/>
       <c r="G1201" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
       <c r="E1202" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F1202" t="inlineStr"/>
@@ -39476,17 +39314,17 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
@@ -39502,61 +39340,41 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1204" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr"/>
+      <c r="C1204" t="inlineStr"/>
       <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr">
-        <is>
-          <t>4.686%</t>
-        </is>
-      </c>
+      <c r="E1204" t="inlineStr"/>
       <c r="F1204" t="inlineStr"/>
       <c r="G1204" t="inlineStr"/>
-      <c r="H1204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1204" t="inlineStr"/>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
       <c r="E1205" t="inlineStr">
         <is>
-          <t>127.1%</t>
+          <t>2.71%</t>
         </is>
       </c>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
+      <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
         <is>
           <t>3</t>
@@ -39566,125 +39384,129 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr"/>
+      <c r="E1206" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F1206" t="inlineStr"/>
       <c r="G1206" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>-2.6M</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
+      <c r="G1207" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1208" t="inlineStr"/>
       <c r="G1208" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr"/>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>SAR20.8B</t>
         </is>
       </c>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G1209" t="inlineStr"/>
       <c r="H1209" t="inlineStr">
         <is>
           <t>3</t>
@@ -39694,85 +39516,85 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>¥-117.6B</t>
+          <t>SAR92.8B</t>
         </is>
       </c>
       <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
+      <c r="G1210" t="inlineStr"/>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>SAR72B</t>
         </is>
       </c>
       <c r="F1211" t="inlineStr"/>
       <c r="G1211" t="inlineStr"/>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr"/>
+      <c r="E1212" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="F1212" t="inlineStr"/>
       <c r="G1212" t="inlineStr"/>
       <c r="H1212" t="inlineStr">
@@ -39784,115 +39606,111 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
       <c r="E1213" t="inlineStr">
         <is>
-          <t>-3.8%</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F1213" t="inlineStr"/>
       <c r="G1213" t="inlineStr"/>
       <c r="H1213" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr"/>
+      <c r="E1214" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
       <c r="F1214" t="inlineStr"/>
       <c r="G1214" t="inlineStr"/>
       <c r="H1214" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
       <c r="E1215" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr">
+      <c r="G1215" t="inlineStr"/>
+      <c r="H1215" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1215" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
+      <c r="E1216" t="inlineStr"/>
       <c r="F1216" t="inlineStr"/>
       <c r="G1216" t="inlineStr"/>
       <c r="H1216" t="inlineStr">
@@ -39904,21 +39722,25 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr"/>
+      <c r="E1217" t="inlineStr">
+        <is>
+          <t>4.499%</t>
+        </is>
+      </c>
       <c r="F1217" t="inlineStr"/>
       <c r="G1217" t="inlineStr"/>
       <c r="H1217" t="inlineStr">
@@ -39930,39 +39752,47 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr"/>
-      <c r="C1218" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>Index-Linked OAT Auction</t>
+        </is>
+      </c>
       <c r="D1218" t="inlineStr"/>
       <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
       <c r="G1218" t="inlineStr"/>
-      <c r="H1218" t="inlineStr"/>
+      <c r="H1218" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>1-Year T-Bill Auction</t>
+          <t>OATi Auction</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>2.71%</t>
-        </is>
-      </c>
+      <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
       <c r="G1219" t="inlineStr"/>
       <c r="H1219" t="inlineStr">
@@ -39974,31 +39804,27 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
       <c r="E1220" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>21.6%</t>
         </is>
       </c>
       <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G1220" t="inlineStr"/>
       <c r="H1220" t="inlineStr">
         <is>
           <t>3</t>
@@ -40008,91 +39834,83 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
       <c r="E1221" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1221" t="inlineStr"/>
       <c r="H1221" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
       <c r="E1222" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>47.5%</t>
         </is>
       </c>
       <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1222" t="inlineStr"/>
       <c r="H1222" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
       <c r="E1223" t="inlineStr">
         <is>
-          <t>SAR20.8B</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="F1223" t="inlineStr"/>
@@ -40106,25 +39924,21 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr">
-        <is>
-          <t>SAR92.8B</t>
-        </is>
-      </c>
+      <c r="E1224" t="inlineStr"/>
       <c r="F1224" t="inlineStr"/>
       <c r="G1224" t="inlineStr"/>
       <c r="H1224" t="inlineStr">
@@ -40136,23 +39950,23 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
       <c r="E1225" t="inlineStr">
         <is>
-          <t>SAR72B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1225" t="inlineStr"/>
@@ -40166,23 +39980,23 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1226" t="inlineStr"/>
       <c r="E1226" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="F1226" t="inlineStr"/>
@@ -40196,169 +40010,181 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr"/>
       <c r="E1227" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1227" t="inlineStr"/>
       <c r="G1227" t="inlineStr"/>
       <c r="H1227" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1228" t="inlineStr"/>
       <c r="E1228" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="F1228" t="inlineStr"/>
       <c r="G1228" t="inlineStr"/>
       <c r="H1228" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>Retail Sales Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
       <c r="E1229" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1229" t="inlineStr"/>
       <c r="G1229" t="inlineStr"/>
       <c r="H1229" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr"/>
+      <c r="E1230" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr"/>
+      <c r="G1230" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>4-Year Treasury Gilt Auction</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr">
-        <is>
-          <t>4.499%</t>
-        </is>
-      </c>
+      <c r="E1231" t="inlineStr"/>
       <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr"/>
       <c r="H1231" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>Index-Linked OAT Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr"/>
+      <c r="E1232" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr"/>
+      <c r="G1232" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1232" t="inlineStr">
         <is>
           <t>3</t>
@@ -40368,17 +40194,17 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>OATi Auction</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1233" t="inlineStr"/>
@@ -40387,32 +40213,28 @@
       <c r="G1233" t="inlineStr"/>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
         <is>
-          <t>Building Permits YoYNOV</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr">
-        <is>
-          <t>21.6%</t>
-        </is>
-      </c>
+      <c r="E1234" t="inlineStr"/>
       <c r="F1234" t="inlineStr"/>
       <c r="G1234" t="inlineStr"/>
       <c r="H1234" t="inlineStr">
@@ -40424,53 +40246,49 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t>Overnight Borrowing RateJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr">
-        <is>
-          <t>46%</t>
-        </is>
-      </c>
+      <c r="E1235" t="inlineStr"/>
       <c r="F1235" t="inlineStr"/>
       <c r="G1235" t="inlineStr"/>
       <c r="H1235" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
         <is>
-          <t>TCMB Interest Rate Decision</t>
+          <t>Consumer Confidence FlashJAN</t>
         </is>
       </c>
       <c r="D1236" t="inlineStr"/>
       <c r="E1236" t="inlineStr">
         <is>
-          <t>47.5%</t>
+          <t>-14.5</t>
         </is>
       </c>
       <c r="F1236" t="inlineStr"/>
@@ -40484,25 +40302,21 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>Overnight Lending RateJAN</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr">
-        <is>
-          <t>49%</t>
-        </is>
-      </c>
+      <c r="E1237" t="inlineStr"/>
       <c r="F1237" t="inlineStr"/>
       <c r="G1237" t="inlineStr"/>
       <c r="H1237" t="inlineStr">
@@ -40514,17 +40328,17 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1238" t="inlineStr"/>
@@ -40533,62 +40347,58 @@
       <c r="G1238" t="inlineStr"/>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1239" t="inlineStr"/>
       <c r="E1239" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>5.852M</t>
         </is>
       </c>
       <c r="F1239" t="inlineStr"/>
       <c r="G1239" t="inlineStr"/>
       <c r="H1239" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1240" t="inlineStr"/>
-      <c r="E1240" t="inlineStr">
-        <is>
-          <t>3.62%</t>
-        </is>
-      </c>
+      <c r="E1240" t="inlineStr"/>
       <c r="F1240" t="inlineStr"/>
       <c r="G1240" t="inlineStr"/>
       <c r="H1240" t="inlineStr">
@@ -40600,25 +40410,21 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr">
-        <is>
-          <t>0.42%</t>
-        </is>
-      </c>
+      <c r="E1241" t="inlineStr"/>
       <c r="F1241" t="inlineStr"/>
       <c r="G1241" t="inlineStr"/>
       <c r="H1241" t="inlineStr">
@@ -40630,25 +40436,21 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr">
-        <is>
-          <t>4.44%</t>
-        </is>
-      </c>
+      <c r="E1242" t="inlineStr"/>
       <c r="F1242" t="inlineStr"/>
       <c r="G1242" t="inlineStr"/>
       <c r="H1242" t="inlineStr">
@@ -40660,81 +40462,69 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMNOV</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1243" t="inlineStr"/>
-      <c r="E1243" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1243" t="inlineStr"/>
       <c r="F1243" t="inlineStr"/>
       <c r="G1243" t="inlineStr"/>
       <c r="H1243" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
         <is>
-          <t>Retail Sales MoM FinalNOV</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1244" t="inlineStr"/>
-      <c r="E1244" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="E1244" t="inlineStr"/>
       <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="G1244" t="inlineStr"/>
       <c r="H1244" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
         <is>
-          <t>Retail Sales MoM PrelDEC</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1245" t="inlineStr"/>
@@ -40743,38 +40533,34 @@
       <c r="G1245" t="inlineStr"/>
       <c r="H1245" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1246" t="inlineStr"/>
       <c r="E1246" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>-0.255M</t>
         </is>
       </c>
       <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1246" t="inlineStr"/>
       <c r="H1246" t="inlineStr">
         <is>
           <t>3</t>
@@ -40784,7 +40570,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
@@ -40794,7 +40580,7 @@
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1247" t="inlineStr"/>
@@ -40803,14 +40589,14 @@
       <c r="G1247" t="inlineStr"/>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
@@ -40820,7 +40606,7 @@
       </c>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1248" t="inlineStr"/>
@@ -40836,21 +40622,25 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1249" t="inlineStr"/>
-      <c r="E1249" t="inlineStr"/>
+      <c r="E1249" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
       <c r="F1249" t="inlineStr"/>
       <c r="G1249" t="inlineStr"/>
       <c r="H1249" t="inlineStr">
@@ -40862,37 +40652,33 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>Consumer Confidence FlashJAN</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1250" t="inlineStr"/>
-      <c r="E1250" t="inlineStr">
-        <is>
-          <t>-14.5</t>
-        </is>
-      </c>
+      <c r="E1250" t="inlineStr"/>
       <c r="F1250" t="inlineStr"/>
       <c r="G1250" t="inlineStr"/>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
@@ -40902,7 +40688,7 @@
       </c>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1251" t="inlineStr"/>
@@ -40918,7 +40704,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
@@ -40928,53 +40714,61 @@
       </c>
       <c r="C1252" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr"/>
+      <c r="E1252" t="inlineStr">
+        <is>
+          <t>2.071%</t>
+        </is>
+      </c>
       <c r="F1252" t="inlineStr"/>
       <c r="G1252" t="inlineStr"/>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1253" t="inlineStr"/>
       <c r="E1253" t="inlineStr">
         <is>
-          <t>5.852M</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr"/>
+      <c r="G1253" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1253" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
@@ -40984,7 +40778,7 @@
       </c>
       <c r="C1254" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+          <t>Fed Balance SheetJAN/22</t>
         </is>
       </c>
       <c r="D1254" t="inlineStr"/>
@@ -41000,73 +40794,85 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1255" t="inlineStr"/>
-      <c r="E1255" t="inlineStr"/>
+      <c r="E1255" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
       <c r="F1255" t="inlineStr"/>
       <c r="G1255" t="inlineStr"/>
       <c r="H1255" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
+          <t>S&amp;P Global Australia Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr"/>
+      <c r="E1256" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F1256" t="inlineStr"/>
       <c r="G1256" t="inlineStr"/>
       <c r="H1256" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
+          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr"/>
+      <c r="E1257" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="F1257" t="inlineStr"/>
       <c r="G1257" t="inlineStr"/>
       <c r="H1257" t="inlineStr">
@@ -41078,79 +40884,91 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1258" t="inlineStr"/>
-      <c r="E1258" t="inlineStr"/>
+      <c r="E1258" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="F1258" t="inlineStr"/>
-      <c r="G1258" t="inlineStr"/>
+      <c r="G1258" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1258" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1259" t="inlineStr"/>
       <c r="E1259" t="inlineStr"/>
       <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr"/>
+      <c r="G1259" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1259" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
         </is>
       </c>
       <c r="D1260" t="inlineStr"/>
-      <c r="E1260" t="inlineStr">
-        <is>
-          <t>-0.255M</t>
-        </is>
-      </c>
+      <c r="E1260" t="inlineStr"/>
       <c r="F1260" t="inlineStr"/>
-      <c r="G1260" t="inlineStr"/>
+      <c r="G1260" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1260" t="inlineStr">
         <is>
           <t>3</t>
@@ -41160,23 +40978,31 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr"/>
+      <c r="E1261" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1261" t="inlineStr"/>
-      <c r="G1261" t="inlineStr"/>
+      <c r="G1261" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1261" t="inlineStr">
         <is>
           <t>3</t>
@@ -41186,23 +41012,31 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1262" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Westpac Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1262" t="inlineStr"/>
-      <c r="E1262" t="inlineStr"/>
+      <c r="E1262" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F1262" t="inlineStr"/>
-      <c r="G1262" t="inlineStr"/>
+      <c r="G1262" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1262" t="inlineStr">
         <is>
           <t>3</t>
@@ -41212,105 +41046,113 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:01 PM</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>Gfk Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1263" t="inlineStr"/>
       <c r="E1263" t="inlineStr">
         <is>
-          <t>3.25%</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="F1263" t="inlineStr"/>
       <c r="G1263" t="inlineStr"/>
       <c r="H1263" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/23</t>
+          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1264" t="inlineStr"/>
-      <c r="E1264" t="inlineStr"/>
+      <c r="E1264" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="F1264" t="inlineStr"/>
       <c r="G1264" t="inlineStr"/>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/23</t>
+          <t>Jibun Bank Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1265" t="inlineStr"/>
-      <c r="E1265" t="inlineStr"/>
+      <c r="E1265" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr"/>
       <c r="H1265" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>Jibun Bank Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1266" t="inlineStr"/>
       <c r="E1266" t="inlineStr">
         <is>
-          <t>2.071%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1266" t="inlineStr"/>
@@ -41324,17 +41166,17 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>URA Property Index QoQ FinalQ4</t>
         </is>
       </c>
       <c r="D1267" t="inlineStr"/>
@@ -41344,11 +41186,7 @@
         </is>
       </c>
       <c r="F1267" t="inlineStr"/>
-      <c r="G1267" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1267" t="inlineStr"/>
       <c r="H1267" t="inlineStr">
         <is>
           <t>3</t>
@@ -41358,51 +41196,55 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>BoJ Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1268" t="inlineStr"/>
-      <c r="E1268" t="inlineStr"/>
+      <c r="E1268" t="inlineStr">
+        <is>
+          <t>0.25%</t>
+        </is>
+      </c>
       <c r="F1268" t="inlineStr"/>
-      <c r="G1268" t="inlineStr"/>
+      <c r="G1268" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>BoJ Quarterly Outlook Report</t>
         </is>
       </c>
       <c r="D1269" t="inlineStr"/>
-      <c r="E1269" t="inlineStr">
-        <is>
-          <t>47.8</t>
-        </is>
-      </c>
+      <c r="E1269" t="inlineStr"/>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
       <c r="H1269" t="inlineStr">
@@ -41414,53 +41256,49 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FlashJAN</t>
+          <t>Foreign Direct Investment YoYQ4</t>
         </is>
       </c>
       <c r="D1270" t="inlineStr"/>
       <c r="E1270" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>18.55%</t>
         </is>
       </c>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
       <c r="H1270" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1271">
-      <c r="A1271" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A1271" t="inlineStr"/>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1271" t="inlineStr"/>
       <c r="E1271" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>2.750%</t>
         </is>
       </c>
       <c r="F1271" t="inlineStr"/>
@@ -41472,365 +41310,337 @@
       </c>
     </row>
     <row r="1272">
-      <c r="A1272" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A1272" t="inlineStr"/>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Federal Tax RevenuesDEC</t>
         </is>
       </c>
       <c r="D1272" t="inlineStr"/>
-      <c r="E1272" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="E1272" t="inlineStr"/>
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>BRL 255.1B</t>
         </is>
       </c>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B1273" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1273" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
+          <t>Friday January 24 2025</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr"/>
+      <c r="C1273" t="inlineStr"/>
       <c r="D1273" t="inlineStr"/>
       <c r="E1273" t="inlineStr"/>
       <c r="F1273" t="inlineStr"/>
-      <c r="G1273" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1273" t="inlineStr"/>
+      <c r="H1273" t="inlineStr"/>
     </row>
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HSBC Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1274" t="inlineStr"/>
-      <c r="E1274" t="inlineStr"/>
+      <c r="E1274" t="inlineStr">
+        <is>
+          <t>60.7</t>
+        </is>
+      </c>
       <c r="F1274" t="inlineStr"/>
-      <c r="G1274" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1274" t="inlineStr"/>
       <c r="H1274" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HSBC Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1275" t="inlineStr"/>
       <c r="E1275" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1275" t="inlineStr"/>
-      <c r="G1275" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1275" t="inlineStr"/>
       <c r="H1275" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr">
         <is>
-          <t>Westpac Leading Index MoMDEC</t>
+          <t>HSBC Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1276" t="inlineStr"/>
       <c r="E1276" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="F1276" t="inlineStr"/>
-      <c r="G1276" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1276" t="inlineStr"/>
       <c r="H1276" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>07:01 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1277" t="inlineStr"/>
       <c r="E1277" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F1277" t="inlineStr"/>
-      <c r="G1277" t="inlineStr"/>
+      <c r="G1277" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1278" t="inlineStr"/>
       <c r="E1278" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>8.5%</t>
         </is>
       </c>
       <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr"/>
+      <c r="G1278" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="H1278" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1279" t="inlineStr"/>
       <c r="E1279" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1279" t="inlineStr"/>
-      <c r="G1279" t="inlineStr"/>
+      <c r="G1279" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="H1279" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1280" t="inlineStr"/>
       <c r="E1280" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F1280" t="inlineStr"/>
       <c r="G1280" t="inlineStr"/>
       <c r="H1280" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1281" t="inlineStr"/>
-      <c r="E1281" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1281" t="inlineStr"/>
       <c r="F1281" t="inlineStr"/>
       <c r="G1281" t="inlineStr"/>
       <c r="H1281" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1282" t="inlineStr"/>
       <c r="E1282" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1282" t="inlineStr"/>
-      <c r="G1282" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1282" t="inlineStr"/>
       <c r="H1282" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1283" t="inlineStr"/>
@@ -41839,126 +41649,146 @@
       <c r="G1283" t="inlineStr"/>
       <c r="H1283" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1284" t="inlineStr"/>
-      <c r="E1284" t="inlineStr">
-        <is>
-          <t>18.55%</t>
-        </is>
-      </c>
+      <c r="E1284" t="inlineStr"/>
       <c r="F1284" t="inlineStr"/>
       <c r="G1284" t="inlineStr"/>
       <c r="H1284" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1285">
-      <c r="A1285" t="inlineStr"/>
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>03:30 AM</t>
+        </is>
+      </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
         <is>
-          <t>20-Year KTB Auction</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1285" t="inlineStr"/>
       <c r="E1285" t="inlineStr">
         <is>
-          <t>2.750%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
       <c r="H1285" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1286">
-      <c r="A1286" t="inlineStr"/>
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr">
         <is>
-          <t>Federal Tax RevenuesDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1286" t="inlineStr"/>
-      <c r="E1286" t="inlineStr"/>
+      <c r="E1286" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="F1286" t="inlineStr"/>
-      <c r="G1286" t="inlineStr">
-        <is>
-          <t>BRL 255.1B</t>
-        </is>
-      </c>
+      <c r="G1286" t="inlineStr"/>
       <c r="H1286" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1287" t="inlineStr"/>
-      <c r="C1287" t="inlineStr"/>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
+        </is>
+      </c>
       <c r="D1287" t="inlineStr"/>
       <c r="E1287" t="inlineStr"/>
       <c r="F1287" t="inlineStr"/>
-      <c r="G1287" t="inlineStr"/>
-      <c r="H1287" t="inlineStr"/>
+      <c r="G1287" t="inlineStr">
+        <is>
+          <t>45.6</t>
+        </is>
+      </c>
+      <c r="H1287" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1288" t="inlineStr"/>
       <c r="E1288" t="inlineStr">
         <is>
-          <t>60.7</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="F1288" t="inlineStr"/>
@@ -41972,91 +41802,87 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1289" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1289" t="inlineStr"/>
       <c r="E1289" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1289" t="inlineStr"/>
       <c r="G1289" t="inlineStr"/>
       <c r="H1289" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1290" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1290" t="inlineStr"/>
       <c r="E1290" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1290" t="inlineStr"/>
       <c r="G1290" t="inlineStr"/>
       <c r="H1290" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1291" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1291" t="inlineStr"/>
       <c r="E1291" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1291" t="inlineStr"/>
-      <c r="G1291" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1291" t="inlineStr"/>
       <c r="H1291" t="inlineStr">
         <is>
           <t>3</t>
@@ -42066,31 +41892,27 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1292" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1292" t="inlineStr"/>
       <c r="E1292" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1292" t="inlineStr"/>
-      <c r="G1292" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
+      <c r="G1292" t="inlineStr"/>
       <c r="H1292" t="inlineStr">
         <is>
           <t>3</t>
@@ -42100,61 +41922,65 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1293" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>CBI Business Optimism IndexQ1</t>
         </is>
       </c>
       <c r="D1293" t="inlineStr"/>
       <c r="E1293" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="F1293" t="inlineStr"/>
       <c r="G1293" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H1293" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1294" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1294" t="inlineStr"/>
       <c r="E1294" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="F1294" t="inlineStr"/>
-      <c r="G1294" t="inlineStr"/>
+      <c r="G1294" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1294" t="inlineStr">
         <is>
           <t>2</t>
@@ -42164,21 +41990,25 @@
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>CBI Industrial Trends OrdersJAN</t>
         </is>
       </c>
       <c r="D1295" t="inlineStr"/>
-      <c r="E1295" t="inlineStr"/>
+      <c r="E1295" t="inlineStr">
+        <is>
+          <t>-40</t>
+        </is>
+      </c>
       <c r="F1295" t="inlineStr"/>
       <c r="G1295" t="inlineStr"/>
       <c r="H1295" t="inlineStr">
@@ -42190,25 +42020,21 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1296" t="inlineStr"/>
-      <c r="E1296" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
+      <c r="E1296" t="inlineStr"/>
       <c r="F1296" t="inlineStr"/>
       <c r="G1296" t="inlineStr"/>
       <c r="H1296" t="inlineStr">
@@ -42220,109 +42046,125 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1297" t="inlineStr"/>
-      <c r="E1297" t="inlineStr"/>
+      <c r="E1297" t="inlineStr">
+        <is>
+          <t>56.4</t>
+        </is>
+      </c>
       <c r="F1297" t="inlineStr"/>
-      <c r="G1297" t="inlineStr"/>
+      <c r="G1297" t="inlineStr">
+        <is>
+          <t>56.2</t>
+        </is>
+      </c>
       <c r="H1297" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1298" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1298" t="inlineStr"/>
-      <c r="E1298" t="inlineStr"/>
+      <c r="E1298" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="F1298" t="inlineStr"/>
       <c r="G1298" t="inlineStr"/>
       <c r="H1298" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1299" t="inlineStr"/>
       <c r="E1299" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1299" t="inlineStr"/>
       <c r="G1299" t="inlineStr"/>
       <c r="H1299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1300" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1300" t="inlineStr"/>
       <c r="E1300" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1300" t="inlineStr"/>
-      <c r="G1300" t="inlineStr"/>
+      <c r="G1300" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="H1300" t="inlineStr">
         <is>
           <t>2</t>
@@ -42332,25 +42174,29 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1301" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1301" t="inlineStr"/>
-      <c r="E1301" t="inlineStr"/>
+      <c r="E1301" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1301" t="inlineStr"/>
       <c r="G1301" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1301" t="inlineStr">
@@ -42362,179 +42208,199 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1302" t="inlineStr"/>
       <c r="E1302" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1302" t="inlineStr"/>
-      <c r="G1302" t="inlineStr"/>
+      <c r="G1302" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1302" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1303" t="inlineStr"/>
       <c r="E1303" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="F1303" t="inlineStr"/>
-      <c r="G1303" t="inlineStr"/>
+      <c r="G1303" t="inlineStr">
+        <is>
+          <t>55.3</t>
+        </is>
+      </c>
       <c r="H1303" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1304" t="inlineStr"/>
       <c r="E1304" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F1304" t="inlineStr"/>
-      <c r="G1304" t="inlineStr"/>
+      <c r="G1304" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H1304" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1305" t="inlineStr"/>
       <c r="E1305" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1305" t="inlineStr"/>
-      <c r="G1305" t="inlineStr"/>
+      <c r="G1305" t="inlineStr">
+        <is>
+          <t>56.6</t>
+        </is>
+      </c>
       <c r="H1305" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1306" t="inlineStr"/>
       <c r="E1306" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1306" t="inlineStr"/>
-      <c r="G1306" t="inlineStr"/>
+      <c r="G1306" t="inlineStr">
+        <is>
+          <t>4.0M</t>
+        </is>
+      </c>
       <c r="H1306" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1307" t="inlineStr">
         <is>
-          <t>CBI Business Optimism IndexQ1</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1307" t="inlineStr"/>
       <c r="E1307" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1307" t="inlineStr"/>
       <c r="G1307" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-3.0%</t>
         </is>
       </c>
       <c r="H1307" t="inlineStr">
@@ -42546,29 +42412,33 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1308" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1308" t="inlineStr"/>
       <c r="E1308" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1308" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F1308" t="inlineStr">
+        <is>
+          <t>73.2</t>
+        </is>
+      </c>
       <c r="G1308" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1308" t="inlineStr">
@@ -42580,53 +42450,73 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1309" t="inlineStr">
         <is>
-          <t>CBI Industrial Trends OrdersJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1309" t="inlineStr"/>
       <c r="E1309" t="inlineStr">
         <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="F1309" t="inlineStr"/>
-      <c r="G1309" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1309" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G1309" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="H1309" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1310" t="inlineStr"/>
-      <c r="E1310" t="inlineStr"/>
-      <c r="F1310" t="inlineStr"/>
-      <c r="G1310" t="inlineStr"/>
+      <c r="E1310" t="inlineStr">
+        <is>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="F1310" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="G1310" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
       <c r="H1310" t="inlineStr">
         <is>
           <t>3</t>
@@ -42636,29 +42526,33 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1311" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1311" t="inlineStr"/>
       <c r="E1311" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F1311" t="inlineStr"/>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="F1311" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
       <c r="G1311" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1311" t="inlineStr">
@@ -42670,27 +42564,35 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1312" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1312" t="inlineStr"/>
       <c r="E1312" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1312" t="inlineStr"/>
-      <c r="G1312" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1312" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G1312" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="H1312" t="inlineStr">
         <is>
           <t>3</t>
@@ -42700,27 +42602,31 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1313" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1313" t="inlineStr"/>
       <c r="E1313" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="F1313" t="inlineStr"/>
-      <c r="G1313" t="inlineStr"/>
+      <c r="G1313" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
       <c r="H1313" t="inlineStr">
         <is>
           <t>3</t>
@@ -42730,580 +42636,84 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1314" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1314" t="inlineStr"/>
       <c r="E1314" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1314" t="inlineStr"/>
       <c r="G1314" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1315" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1315" t="inlineStr"/>
-      <c r="E1315" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1315" t="inlineStr"/>
       <c r="F1315" t="inlineStr"/>
-      <c r="G1315" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1315" t="inlineStr"/>
       <c r="H1315" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1316" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1316" t="inlineStr"/>
-      <c r="E1316" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1316" t="inlineStr"/>
       <c r="F1316" t="inlineStr"/>
-      <c r="G1316" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1316" t="inlineStr"/>
       <c r="H1316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1317">
-      <c r="A1317" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1317" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1317" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1317" t="inlineStr"/>
-      <c r="E1317" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F1317" t="inlineStr"/>
-      <c r="G1317" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1318">
-      <c r="A1318" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1318" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1318" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1318" t="inlineStr"/>
-      <c r="E1318" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F1318" t="inlineStr"/>
-      <c r="G1318" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1319">
-      <c r="A1319" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1319" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1319" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1319" t="inlineStr"/>
-      <c r="E1319" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F1319" t="inlineStr"/>
-      <c r="G1319" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1320">
-      <c r="A1320" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1320" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1320" t="inlineStr">
-        <is>
-          <t>Existing Home SalesDEC</t>
-        </is>
-      </c>
-      <c r="D1320" t="inlineStr"/>
-      <c r="E1320" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1320" t="inlineStr"/>
-      <c r="G1320" t="inlineStr">
-        <is>
-          <t>4.0M</t>
-        </is>
-      </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1321">
-      <c r="A1321" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1321" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1321" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1321" t="inlineStr"/>
-      <c r="E1321" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="F1321" t="inlineStr"/>
-      <c r="G1321" t="inlineStr">
-        <is>
-          <t>-3.0%</t>
-        </is>
-      </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1322">
-      <c r="A1322" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1322" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1322" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1322" t="inlineStr"/>
-      <c r="E1322" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1322" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="G1322" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="H1322" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1323">
-      <c r="A1323" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1323" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1323" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1323" t="inlineStr"/>
-      <c r="E1323" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1323" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1323" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1324">
-      <c r="A1324" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1324" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1324" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1324" t="inlineStr"/>
-      <c r="E1324" t="inlineStr">
-        <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1324" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G1324" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1325" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1325" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1325" t="inlineStr"/>
-      <c r="E1325" t="inlineStr">
-        <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1325" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1325" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1326" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1326" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1326" t="inlineStr"/>
-      <c r="E1326" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1326" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1326" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1327">
-      <c r="A1327" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1327" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1327" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1327" t="inlineStr"/>
-      <c r="E1327" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F1327" t="inlineStr"/>
-      <c r="G1327" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1328" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1328" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1328" t="inlineStr"/>
-      <c r="E1328" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F1328" t="inlineStr"/>
-      <c r="G1328" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1329" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1329" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
-        </is>
-      </c>
-      <c r="D1329" t="inlineStr"/>
-      <c r="E1329" t="inlineStr"/>
-      <c r="F1329" t="inlineStr"/>
-      <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1330" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1330" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
-        </is>
-      </c>
-      <c r="D1330" t="inlineStr"/>
-      <c r="E1330" t="inlineStr"/>
-      <c r="F1330" t="inlineStr"/>
-      <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr">
         <is>
           <t>3</t>
         </is>
